--- a/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_40.xlsx
+++ b/Outputs/5. Budget constrained/Grid Search/Output Files/1750000/Output_12_40.xlsx
@@ -471,7 +471,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>0</v>
+        <v>0.001</v>
       </c>
     </row>
     <row r="4">
@@ -501,7 +501,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>4048709.870444609</v>
+        <v>4046333.243497245</v>
       </c>
     </row>
     <row r="7">
@@ -521,7 +521,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>416855.1052283186</v>
+        <v>416855.1052283185</v>
       </c>
     </row>
     <row r="9">
@@ -541,7 +541,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>7135141.641162917</v>
+        <v>7135141.641162916</v>
       </c>
     </row>
     <row r="11">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>382.7338416634806</v>
+        <v>72.94942429078156</v>
       </c>
       <c r="C2" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D2" t="n">
         <v>0</v>
@@ -668,16 +668,16 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G2" t="n">
-        <v>11.54770277295399</v>
+        <v>411.547702772954</v>
       </c>
       <c r="H2" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I2" t="n">
-        <v>0</v>
+        <v>65.70991267247049</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -713,19 +713,19 @@
         <v>206.6581849802338</v>
       </c>
       <c r="U2" t="n">
-        <v>233.4716947511276</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V2" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W2" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X2" t="n">
         <v>369.731100678469</v>
       </c>
       <c r="Y2" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -756,7 +756,7 @@
         <v>92.83156789269626</v>
       </c>
       <c r="I3" t="n">
-        <v>20.22295923705012</v>
+        <v>20.22295923705015</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -814,22 +814,22 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
       </c>
       <c r="D4" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F4" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G4" t="n">
-        <v>145.9219060821656</v>
+        <v>0</v>
       </c>
       <c r="H4" t="n">
         <v>0</v>
@@ -862,13 +862,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S4" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T4" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U4" t="n">
         <v>0</v>
@@ -880,10 +880,10 @@
         <v>286.522998336591</v>
       </c>
       <c r="X4" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y4" t="n">
-        <v>218.5846533520948</v>
+        <v>188.4649415276185</v>
       </c>
     </row>
     <row r="5">
@@ -896,25 +896,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C5" t="n">
-        <v>365.2728917710076</v>
+        <v>108.0165900216661</v>
       </c>
       <c r="D5" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E5" t="n">
-        <v>381.9303700722618</v>
+        <v>0</v>
       </c>
       <c r="F5" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G5" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H5" t="n">
-        <v>130.9898714432097</v>
+        <v>0</v>
       </c>
       <c r="I5" t="n">
-        <v>65.70991267247044</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J5" t="n">
         <v>0</v>
@@ -944,7 +944,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T5" t="n">
         <v>0</v>
@@ -953,13 +953,13 @@
         <v>0</v>
       </c>
       <c r="V5" t="n">
-        <v>0</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W5" t="n">
-        <v>0</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X5" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y5" t="n">
         <v>386.2379386560536</v>
@@ -1051,22 +1051,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>179.8319801819373</v>
+        <v>13.18609391402018</v>
       </c>
       <c r="C7" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D7" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E7" t="n">
         <v>0</v>
       </c>
       <c r="F7" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G7" t="n">
-        <v>166.3066000448042</v>
+        <v>0</v>
       </c>
       <c r="H7" t="n">
         <v>0</v>
@@ -1102,25 +1102,25 @@
         <v>0</v>
       </c>
       <c r="S7" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T7" t="n">
-        <v>60.74325072283328</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U7" t="n">
         <v>286.2271541212006</v>
       </c>
       <c r="V7" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W7" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X7" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y7" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -1133,25 +1133,25 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C8" t="n">
-        <v>365.2728917710076</v>
+        <v>0</v>
       </c>
       <c r="D8" t="n">
         <v>354.683041620683</v>
       </c>
       <c r="E8" t="n">
-        <v>381.9303700722618</v>
+        <v>84.77350972403246</v>
       </c>
       <c r="F8" t="n">
-        <v>406.8760457417114</v>
+        <v>6.876045741711437</v>
       </c>
       <c r="G8" t="n">
         <v>11.54770277295399</v>
       </c>
       <c r="H8" t="n">
-        <v>0</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I8" t="n">
-        <v>0</v>
+        <v>65.70991267247047</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -1181,25 +1181,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>0</v>
+        <v>123.4522153987944</v>
       </c>
       <c r="T8" t="n">
-        <v>0</v>
+        <v>206.6581849802338</v>
       </c>
       <c r="U8" t="n">
-        <v>0</v>
+        <v>251.045250128462</v>
       </c>
       <c r="V8" t="n">
-        <v>196.6997841156795</v>
+        <v>327.7522584701349</v>
       </c>
       <c r="W8" t="n">
         <v>0</v>
       </c>
       <c r="X8" t="n">
-        <v>0</v>
+        <v>369.731100678469</v>
       </c>
       <c r="Y8" t="n">
-        <v>386.2379386560536</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -1291,19 +1291,19 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C10" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D10" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E10" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F10" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G10" t="n">
-        <v>50.98074812542857</v>
+        <v>0</v>
       </c>
       <c r="H10" t="n">
         <v>0</v>
@@ -1336,28 +1336,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>0</v>
+        <v>101.5575724195736</v>
       </c>
       <c r="S10" t="n">
-        <v>0</v>
+        <v>194.6624603617375</v>
       </c>
       <c r="T10" t="n">
-        <v>0</v>
+        <v>220.7486959972119</v>
       </c>
       <c r="U10" t="n">
-        <v>0</v>
+        <v>286.2271541212006</v>
       </c>
       <c r="V10" t="n">
-        <v>0</v>
+        <v>252.137643323828</v>
       </c>
       <c r="W10" t="n">
         <v>286.522998336591</v>
       </c>
       <c r="X10" t="n">
-        <v>225.7096553890372</v>
+        <v>47.65883542934953</v>
       </c>
       <c r="Y10" t="n">
-        <v>218.5846533520948</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -1370,7 +1370,7 @@
         <v>382.7338416634806</v>
       </c>
       <c r="C11" t="n">
-        <v>365.2728917710076</v>
+        <v>365.2728917710081</v>
       </c>
       <c r="D11" t="n">
         <v>354.683041620683</v>
@@ -1382,7 +1382,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G11" t="n">
-        <v>409.8033385187882</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H11" t="n">
         <v>283.1540821444137</v>
@@ -1418,19 +1418,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>83.70251495695531</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T11" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U11" t="n">
-        <v>250.9057009881287</v>
+        <v>250.9057009881286</v>
       </c>
       <c r="V11" t="n">
         <v>327.7522584701349</v>
       </c>
       <c r="W11" t="n">
-        <v>349.2409687174131</v>
+        <v>349.240968717413</v>
       </c>
       <c r="X11" t="n">
         <v>369.731100678469</v>
@@ -1525,19 +1525,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C13" t="n">
-        <v>110.0177171766865</v>
+        <v>0</v>
       </c>
       <c r="D13" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E13" t="n">
         <v>0</v>
       </c>
       <c r="F13" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G13" t="n">
         <v>165.5241382922688</v>
@@ -1573,7 +1573,7 @@
         <v>0</v>
       </c>
       <c r="R13" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S13" t="n">
         <v>181.0262860016446</v>
@@ -1594,7 +1594,7 @@
         <v>225.7096553890372</v>
       </c>
       <c r="Y13" t="n">
-        <v>218.5846533520948</v>
+        <v>214.3978296695746</v>
       </c>
     </row>
     <row r="14">
@@ -1655,13 +1655,13 @@
         <v>0</v>
       </c>
       <c r="S14" t="n">
-        <v>83.70251495695526</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T14" t="n">
         <v>199.0222304576161</v>
       </c>
       <c r="U14" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881294</v>
       </c>
       <c r="V14" t="n">
         <v>327.7522584701349</v>
@@ -1771,19 +1771,19 @@
         <v>0</v>
       </c>
       <c r="E16" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F16" t="n">
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H16" t="n">
-        <v>83.06560892428257</v>
+        <v>20.88994825141626</v>
       </c>
       <c r="I16" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -1810,7 +1810,7 @@
         <v>0</v>
       </c>
       <c r="R16" t="n">
-        <v>66.37524671012164</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S16" t="n">
         <v>181.0262860016446</v>
@@ -1856,7 +1856,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G17" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H17" t="n">
         <v>283.1540821444137</v>
@@ -1999,25 +1999,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C19" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D19" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E19" t="n">
-        <v>0</v>
+        <v>53.11937003877868</v>
       </c>
       <c r="F19" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G19" t="n">
-        <v>27.02919805176109</v>
+        <v>0</v>
       </c>
       <c r="H19" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I19" t="n">
         <v>81.26583631856553</v>
@@ -2135,7 +2135,7 @@
         <v>199.0222304576161</v>
       </c>
       <c r="U20" t="n">
-        <v>250.9057009881286</v>
+        <v>250.9057009881284</v>
       </c>
       <c r="V20" t="n">
         <v>327.7522584701349</v>
@@ -2236,25 +2236,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C22" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D22" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E22" t="n">
         <v>0</v>
       </c>
       <c r="F22" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G22" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H22" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I22" t="n">
         <v>0</v>
@@ -2302,7 +2302,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X22" t="n">
-        <v>225.7096553890372</v>
+        <v>194.5707234541125</v>
       </c>
       <c r="Y22" t="n">
         <v>218.5846533520948</v>
@@ -2366,7 +2366,7 @@
         <v>0</v>
       </c>
       <c r="S23" t="n">
-        <v>83.7025149569553</v>
+        <v>83.70251495695528</v>
       </c>
       <c r="T23" t="n">
         <v>199.0222304576161</v>
@@ -2485,16 +2485,16 @@
         <v>0</v>
       </c>
       <c r="F25" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G25" t="n">
-        <v>165.5241382922688</v>
+        <v>107.3178054178675</v>
       </c>
       <c r="H25" t="n">
         <v>140.2947128462239</v>
       </c>
       <c r="I25" t="n">
-        <v>0</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -2521,7 +2521,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012166</v>
       </c>
       <c r="S25" t="n">
         <v>181.0262860016446</v>
@@ -2539,7 +2539,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X25" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y25" t="n">
         <v>218.5846533520948</v>
@@ -2552,7 +2552,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>382.7338416634794</v>
+        <v>382.7338416634806</v>
       </c>
       <c r="C26" t="n">
         <v>365.2728917710076</v>
@@ -2567,7 +2567,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G26" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H26" t="n">
         <v>283.1540821444137</v>
@@ -2719,13 +2719,13 @@
         <v>0</v>
       </c>
       <c r="E28" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F28" t="n">
         <v>0</v>
       </c>
       <c r="G28" t="n">
-        <v>108.2950343703266</v>
+        <v>0</v>
       </c>
       <c r="H28" t="n">
         <v>140.2947128462239</v>
@@ -2773,7 +2773,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W28" t="n">
-        <v>286.522998336591</v>
+        <v>248.3840700603486</v>
       </c>
       <c r="X28" t="n">
         <v>225.7096553890372</v>
@@ -2807,7 +2807,7 @@
         <v>409.8033385187866</v>
       </c>
       <c r="H29" t="n">
-        <v>283.1540821444132</v>
+        <v>283.1540821444137</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -2947,13 +2947,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>179.8319801819373</v>
+        <v>33.0162797694411</v>
       </c>
       <c r="C31" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D31" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E31" t="n">
         <v>0</v>
@@ -2965,10 +2965,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H31" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I31" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -3010,7 +3010,7 @@
         <v>252.137643323828</v>
       </c>
       <c r="W31" t="n">
-        <v>229.2938944146487</v>
+        <v>286.522998336591</v>
       </c>
       <c r="X31" t="n">
         <v>225.7096553890372</v>
@@ -3041,7 +3041,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G32" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187852</v>
       </c>
       <c r="H32" t="n">
         <v>283.1540821444137</v>
@@ -3187,10 +3187,10 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C34" t="n">
-        <v>167.2468210986278</v>
+        <v>20.43112068613158</v>
       </c>
       <c r="D34" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E34" t="n">
         <v>0</v>
@@ -3199,13 +3199,13 @@
         <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>108.2950343703266</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H34" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I34" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -3278,7 +3278,7 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G35" t="n">
-        <v>409.8033385187866</v>
+        <v>409.8033385187861</v>
       </c>
       <c r="H35" t="n">
         <v>283.1540821444137</v>
@@ -3430,13 +3430,13 @@
         <v>0</v>
       </c>
       <c r="E37" t="n">
-        <v>0</v>
+        <v>108.2950343703266</v>
       </c>
       <c r="F37" t="n">
         <v>0</v>
       </c>
       <c r="G37" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H37" t="n">
         <v>140.2947128462239</v>
@@ -3478,7 +3478,7 @@
         <v>217.4054503272883</v>
       </c>
       <c r="U37" t="n">
-        <v>228.9553704673018</v>
+        <v>286.1844743892441</v>
       </c>
       <c r="V37" t="n">
         <v>252.137643323828</v>
@@ -3515,10 +3515,10 @@
         <v>406.8760457417114</v>
       </c>
       <c r="G38" t="n">
-        <v>409.8033385187861</v>
+        <v>409.8033385187866</v>
       </c>
       <c r="H38" t="n">
-        <v>283.1540821444137</v>
+        <v>283.1540821444135</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -3661,25 +3661,25 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C40" t="n">
-        <v>167.2468210986278</v>
+        <v>39.52129633183119</v>
       </c>
       <c r="D40" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E40" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F40" t="n">
         <v>0</v>
       </c>
       <c r="G40" t="n">
-        <v>165.5241382922688</v>
+        <v>0</v>
       </c>
       <c r="H40" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I40" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -3709,7 +3709,7 @@
         <v>66.37524671012169</v>
       </c>
       <c r="S40" t="n">
-        <v>123.7971820797026</v>
+        <v>181.0262860016446</v>
       </c>
       <c r="T40" t="n">
         <v>217.4054503272883</v>
@@ -3898,13 +3898,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C43" t="n">
-        <v>104.8913819999782</v>
+        <v>0</v>
       </c>
       <c r="D43" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E43" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F43" t="n">
         <v>145.4210480229312</v>
@@ -3916,7 +3916,7 @@
         <v>0</v>
       </c>
       <c r="I43" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -3949,7 +3949,7 @@
         <v>181.0262860016446</v>
       </c>
       <c r="T43" t="n">
-        <v>217.4054503272883</v>
+        <v>171.6912157329567</v>
       </c>
       <c r="U43" t="n">
         <v>286.1844743892441</v>
@@ -3961,7 +3961,7 @@
         <v>286.522998336591</v>
       </c>
       <c r="X43" t="n">
-        <v>225.7096553890372</v>
+        <v>0</v>
       </c>
       <c r="Y43" t="n">
         <v>218.5846533520948</v>
@@ -4135,13 +4135,13 @@
         <v>179.8319801819373</v>
       </c>
       <c r="C46" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D46" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E46" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F46" t="n">
         <v>0</v>
@@ -4150,10 +4150,10 @@
         <v>165.5241382922688</v>
       </c>
       <c r="H46" t="n">
-        <v>140.2947128462239</v>
+        <v>0</v>
       </c>
       <c r="I46" t="n">
-        <v>0</v>
+        <v>81.26583631856553</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -4180,7 +4180,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>9.146142788179482</v>
+        <v>66.37524671012169</v>
       </c>
       <c r="S46" t="n">
         <v>181.0262860016446</v>
@@ -4192,7 +4192,7 @@
         <v>286.1844743892441</v>
       </c>
       <c r="V46" t="n">
-        <v>252.137643323828</v>
+        <v>126.1348013633905</v>
       </c>
       <c r="W46" t="n">
         <v>286.522998336591</v>
@@ -4304,76 +4304,76 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>842.8595545333294</v>
+        <v>844.329830759459</v>
       </c>
       <c r="C2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="D2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="E2" t="n">
-        <v>473.8970375929177</v>
+        <v>844.329830759459</v>
       </c>
       <c r="F2" t="n">
-        <v>62.9111328033102</v>
+        <v>837.3843300102556</v>
       </c>
       <c r="G2" t="n">
-        <v>51.24678656800313</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H2" t="n">
-        <v>51.24678656800313</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I2" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J2" t="n">
-        <v>187.5281822362819</v>
+        <v>187.5281822362817</v>
       </c>
       <c r="K2" t="n">
-        <v>442.5171852816084</v>
+        <v>442.5171852816086</v>
       </c>
       <c r="L2" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M2" t="n">
         <v>1220.470313923562</v>
       </c>
       <c r="N2" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O2" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P2" t="n">
-        <v>2360.886721764998</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q2" t="n">
-        <v>2542.250581723851</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R2" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S2" t="n">
-        <v>2437.640120926627</v>
+        <v>2437.640120926625</v>
       </c>
       <c r="T2" t="n">
-        <v>2228.894479532451</v>
+        <v>2228.89447953245</v>
       </c>
       <c r="U2" t="n">
-        <v>1993.064484834343</v>
+        <v>1975.313418796629</v>
       </c>
       <c r="V2" t="n">
-        <v>1993.064484834343</v>
+        <v>1644.250531453059</v>
       </c>
       <c r="W2" t="n">
-        <v>1993.064484834343</v>
+        <v>1291.481876182944</v>
       </c>
       <c r="X2" t="n">
-        <v>1619.598726573263</v>
+        <v>918.0161179218646</v>
       </c>
       <c r="Y2" t="n">
-        <v>1229.459394597451</v>
+        <v>918.0161179218646</v>
       </c>
     </row>
     <row r="3">
@@ -4383,76 +4383,76 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>931.3041410966398</v>
+        <v>931.3041410966384</v>
       </c>
       <c r="C3" t="n">
-        <v>756.8511118155128</v>
+        <v>756.8511118155114</v>
       </c>
       <c r="D3" t="n">
-        <v>607.9167021542614</v>
+        <v>607.9167021542601</v>
       </c>
       <c r="E3" t="n">
-        <v>448.6792471488059</v>
+        <v>448.6792471488045</v>
       </c>
       <c r="F3" t="n">
-        <v>302.1446891756909</v>
+        <v>302.1446891756896</v>
       </c>
       <c r="G3" t="n">
-        <v>165.4432786182533</v>
+        <v>165.443278618252</v>
       </c>
       <c r="H3" t="n">
-        <v>71.67401812057901</v>
+        <v>71.67401812057875</v>
       </c>
       <c r="I3" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J3" t="n">
-        <v>113.5972052500114</v>
+        <v>113.5972052500113</v>
       </c>
       <c r="K3" t="n">
-        <v>560.1394111735143</v>
+        <v>298.3188265310613</v>
       </c>
       <c r="L3" t="n">
-        <v>854.8429682049862</v>
+        <v>932.4978103100997</v>
       </c>
       <c r="M3" t="n">
-        <v>1218.104987164206</v>
+        <v>1480.485115687205</v>
       </c>
       <c r="N3" t="n">
-        <v>1605.390115761151</v>
+        <v>1867.77024428415</v>
       </c>
       <c r="O3" t="n">
-        <v>1937.460550937313</v>
+        <v>2199.840679460312</v>
       </c>
       <c r="P3" t="n">
-        <v>2447.02341329261</v>
+        <v>2447.023413292609</v>
       </c>
       <c r="Q3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="R3" t="n">
-        <v>2562.339328400156</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S3" t="n">
-        <v>2426.617474780097</v>
+        <v>2426.617474780096</v>
       </c>
       <c r="T3" t="n">
-        <v>2232.610846175227</v>
+        <v>2232.610846175226</v>
       </c>
       <c r="U3" t="n">
-        <v>2004.520742047139</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V3" t="n">
-        <v>1769.368633815396</v>
+        <v>1769.368633815395</v>
       </c>
       <c r="W3" t="n">
-        <v>1515.131277087195</v>
+        <v>1515.131277087193</v>
       </c>
       <c r="X3" t="n">
-        <v>1307.279776881662</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y3" t="n">
-        <v>1099.519478116708</v>
+        <v>1099.519478116707</v>
       </c>
     </row>
     <row r="4">
@@ -4462,76 +4462,76 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>643.5623317901026</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="C4" t="n">
-        <v>643.5623317901026</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="D4" t="n">
-        <v>493.4456923777668</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="E4" t="n">
-        <v>345.5325987953737</v>
+        <v>198.1367340659135</v>
       </c>
       <c r="F4" t="n">
-        <v>198.6426512974633</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I4" t="n">
-        <v>51.24678656800313</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J4" t="n">
-        <v>76.71595955312203</v>
+        <v>76.71595955312196</v>
       </c>
       <c r="K4" t="n">
-        <v>248.4064713020476</v>
+        <v>248.4064713020475</v>
       </c>
       <c r="L4" t="n">
-        <v>523.6376499693235</v>
+        <v>523.6376499693233</v>
       </c>
       <c r="M4" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096585</v>
       </c>
       <c r="N4" t="n">
         <v>1123.088724245823</v>
       </c>
       <c r="O4" t="n">
-        <v>1383.126566999035</v>
+        <v>1383.126566999034</v>
       </c>
       <c r="P4" t="n">
-        <v>1582.113182171024</v>
+        <v>1582.113182171023</v>
       </c>
       <c r="Q4" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R4" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.862713590079</v>
       </c>
       <c r="S4" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.23396574994</v>
       </c>
       <c r="T4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U4" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="V4" t="n">
-        <v>1381.761631868611</v>
+        <v>859.5709967387889</v>
       </c>
       <c r="W4" t="n">
-        <v>1092.34446183165</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="X4" t="n">
-        <v>864.3549109336327</v>
+        <v>570.1538267018284</v>
       </c>
       <c r="Y4" t="n">
-        <v>643.5623317901026</v>
+        <v>379.7851988961531</v>
       </c>
     </row>
     <row r="5">
@@ -4541,76 +4541,76 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>1785.600156360223</v>
+        <v>603.6036480119274</v>
       </c>
       <c r="C5" t="n">
-        <v>1416.637639419812</v>
+        <v>494.4959813233757</v>
       </c>
       <c r="D5" t="n">
-        <v>1058.371940813061</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="E5" t="n">
-        <v>672.5836882148169</v>
+        <v>136.2302827166252</v>
       </c>
       <c r="F5" t="n">
-        <v>261.5977834252093</v>
+        <v>129.2847819674217</v>
       </c>
       <c r="G5" t="n">
-        <v>249.9334371899023</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="H5" t="n">
         <v>117.6204357321147</v>
       </c>
       <c r="I5" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J5" t="n">
-        <v>187.5281822362824</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K5" t="n">
-        <v>442.5171852816086</v>
+        <v>442.5171852816079</v>
       </c>
       <c r="L5" t="n">
-        <v>795.7553530872921</v>
+        <v>795.7553530872915</v>
       </c>
       <c r="M5" t="n">
-        <v>1220.470313923563</v>
+        <v>1220.470313923562</v>
       </c>
       <c r="N5" t="n">
-        <v>1656.671415230818</v>
+        <v>1656.671415230817</v>
       </c>
       <c r="O5" t="n">
-        <v>2055.228484740841</v>
+        <v>2055.22848474084</v>
       </c>
       <c r="P5" t="n">
-        <v>2360.886721764999</v>
+        <v>2360.886721764997</v>
       </c>
       <c r="Q5" t="n">
-        <v>2542.250581723852</v>
+        <v>2542.25058172385</v>
       </c>
       <c r="R5" t="n">
-        <v>2562.339328400157</v>
+        <v>2562.339328400155</v>
       </c>
       <c r="S5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="U5" t="n">
-        <v>2562.339328400157</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="V5" t="n">
-        <v>2562.339328400157</v>
+        <v>2106.577233583055</v>
       </c>
       <c r="W5" t="n">
-        <v>2562.339328400157</v>
+        <v>1753.808578312941</v>
       </c>
       <c r="X5" t="n">
-        <v>2562.339328400157</v>
+        <v>1380.342820051861</v>
       </c>
       <c r="Y5" t="n">
-        <v>2172.199996424345</v>
+        <v>990.2034880760491</v>
       </c>
     </row>
     <row r="6">
@@ -4620,46 +4620,46 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>931.3041410966388</v>
+        <v>931.3041410966385</v>
       </c>
       <c r="C6" t="n">
-        <v>756.8511118155118</v>
+        <v>756.8511118155116</v>
       </c>
       <c r="D6" t="n">
-        <v>607.9167021542605</v>
+        <v>607.9167021542603</v>
       </c>
       <c r="E6" t="n">
-        <v>448.679247148805</v>
+        <v>448.6792471488048</v>
       </c>
       <c r="F6" t="n">
-        <v>302.1446891756899</v>
+        <v>302.1446891756898</v>
       </c>
       <c r="G6" t="n">
         <v>165.443278618252</v>
       </c>
       <c r="H6" t="n">
-        <v>71.67401812057902</v>
+        <v>71.67401812057898</v>
       </c>
       <c r="I6" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J6" t="n">
-        <v>114.5432626034343</v>
+        <v>238.4273302370161</v>
       </c>
       <c r="K6" t="n">
-        <v>299.2648838844844</v>
+        <v>423.1489515180662</v>
       </c>
       <c r="L6" t="n">
-        <v>593.9684409159562</v>
+        <v>717.8525085495379</v>
       </c>
       <c r="M6" t="n">
-        <v>957.2304598751764</v>
+        <v>1081.114527508758</v>
       </c>
       <c r="N6" t="n">
-        <v>1344.515588472122</v>
+        <v>1659.793729425659</v>
       </c>
       <c r="O6" t="n">
-        <v>1676.586023648284</v>
+        <v>1991.864164601821</v>
       </c>
       <c r="P6" t="n">
         <v>2239.046898434118</v>
@@ -4677,7 +4677,7 @@
         <v>2232.610846175226</v>
       </c>
       <c r="U6" t="n">
-        <v>2004.520742047138</v>
+        <v>2004.520742047137</v>
       </c>
       <c r="V6" t="n">
         <v>1769.368633815395</v>
@@ -4686,7 +4686,7 @@
         <v>1515.131277087193</v>
       </c>
       <c r="X6" t="n">
-        <v>1307.279776881661</v>
+        <v>1307.27977688166</v>
       </c>
       <c r="Y6" t="n">
         <v>1099.519478116707</v>
@@ -4699,40 +4699,40 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>366.1231987576349</v>
+        <v>370.2996089082458</v>
       </c>
       <c r="C7" t="n">
-        <v>366.1231987576349</v>
+        <v>201.3634259803388</v>
       </c>
       <c r="D7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="E7" t="n">
-        <v>366.1231987576349</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="F7" t="n">
-        <v>219.2332512597245</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="G7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="H7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="I7" t="n">
-        <v>51.24678656800314</v>
+        <v>51.2467865680031</v>
       </c>
       <c r="J7" t="n">
-        <v>76.71595955312205</v>
+        <v>76.71595955312199</v>
       </c>
       <c r="K7" t="n">
-        <v>248.4064713020477</v>
+        <v>248.4064713020476</v>
       </c>
       <c r="L7" t="n">
         <v>523.6376499693235</v>
       </c>
       <c r="M7" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N7" t="n">
         <v>1123.088724245823</v>
@@ -4744,31 +4744,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R7" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="S7" t="n">
-        <v>1636.446120074498</v>
+        <v>1439.817372234359</v>
       </c>
       <c r="T7" t="n">
-        <v>1575.089301162545</v>
+        <v>1216.838891429094</v>
       </c>
       <c r="U7" t="n">
-        <v>1285.970963666383</v>
+        <v>927.7205539329318</v>
       </c>
       <c r="V7" t="n">
-        <v>1285.970963666383</v>
+        <v>673.036065727045</v>
       </c>
       <c r="W7" t="n">
-        <v>996.5537936294221</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="X7" t="n">
-        <v>768.5642427314048</v>
+        <v>383.6188956900843</v>
       </c>
       <c r="Y7" t="n">
-        <v>547.7716635878746</v>
+        <v>383.6188956900843</v>
       </c>
     </row>
     <row r="8">
@@ -4778,37 +4778,37 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>1586.913505738324</v>
+        <v>884.1849331278584</v>
       </c>
       <c r="C8" t="n">
-        <v>1217.950988797912</v>
+        <v>884.1849331278584</v>
       </c>
       <c r="D8" t="n">
-        <v>859.685290191162</v>
+        <v>525.9192345211079</v>
       </c>
       <c r="E8" t="n">
-        <v>473.8970375929177</v>
+        <v>440.2894267190549</v>
       </c>
       <c r="F8" t="n">
-        <v>62.91113280331018</v>
+        <v>433.3439259698515</v>
       </c>
       <c r="G8" t="n">
-        <v>51.24678656800312</v>
+        <v>421.6795797345444</v>
       </c>
       <c r="H8" t="n">
-        <v>51.24678656800312</v>
+        <v>117.6204357321147</v>
       </c>
       <c r="I8" t="n">
         <v>51.24678656800312</v>
       </c>
       <c r="J8" t="n">
-        <v>187.528182236282</v>
+        <v>187.5281822362818</v>
       </c>
       <c r="K8" t="n">
-        <v>442.5171852816085</v>
+        <v>442.5171852816082</v>
       </c>
       <c r="L8" t="n">
-        <v>795.755353087292</v>
+        <v>795.7553530872917</v>
       </c>
       <c r="M8" t="n">
         <v>1220.470313923562</v>
@@ -4829,25 +4829,25 @@
         <v>2562.339328400156</v>
       </c>
       <c r="S8" t="n">
-        <v>2562.339328400156</v>
+        <v>2437.640120926626</v>
       </c>
       <c r="T8" t="n">
-        <v>2562.339328400156</v>
+        <v>2228.894479532451</v>
       </c>
       <c r="U8" t="n">
-        <v>2562.339328400156</v>
+        <v>1975.313418796631</v>
       </c>
       <c r="V8" t="n">
-        <v>2363.652677778257</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="W8" t="n">
-        <v>2363.652677778257</v>
+        <v>1644.25053145306</v>
       </c>
       <c r="X8" t="n">
-        <v>2363.652677778257</v>
+        <v>1270.78477319198</v>
       </c>
       <c r="Y8" t="n">
-        <v>1973.513345802446</v>
+        <v>1270.78477319198</v>
       </c>
     </row>
     <row r="9">
@@ -4881,28 +4881,28 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J9" t="n">
-        <v>238.4273302370161</v>
+        <v>113.5972052500114</v>
       </c>
       <c r="K9" t="n">
-        <v>614.5430248380219</v>
+        <v>560.1394111735142</v>
       </c>
       <c r="L9" t="n">
-        <v>909.2465818694938</v>
+        <v>854.8429682049859</v>
       </c>
       <c r="M9" t="n">
-        <v>1272.508600828714</v>
+        <v>1248.170551105041</v>
       </c>
       <c r="N9" t="n">
-        <v>1659.793729425659</v>
+        <v>1635.455679701986</v>
       </c>
       <c r="O9" t="n">
-        <v>1991.864164601821</v>
+        <v>1967.526114878148</v>
       </c>
       <c r="P9" t="n">
-        <v>2239.046898434118</v>
+        <v>2214.708848710445</v>
       </c>
       <c r="Q9" t="n">
-        <v>2562.339328400155</v>
+        <v>2538.001278676482</v>
       </c>
       <c r="R9" t="n">
         <v>2562.339328400155</v>
@@ -4936,19 +4936,19 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>716.5983551657498</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="C10" t="n">
-        <v>547.6621722378429</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="D10" t="n">
-        <v>397.5455328255072</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="E10" t="n">
-        <v>249.632439243114</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="F10" t="n">
-        <v>102.7424917452037</v>
+        <v>51.24678656800312</v>
       </c>
       <c r="G10" t="n">
         <v>51.24678656800312</v>
@@ -4960,7 +4960,7 @@
         <v>51.24678656800312</v>
       </c>
       <c r="J10" t="n">
-        <v>76.71595955312202</v>
+        <v>76.715959553122</v>
       </c>
       <c r="K10" t="n">
         <v>248.4064713020476</v>
@@ -4969,7 +4969,7 @@
         <v>523.6376499693235</v>
       </c>
       <c r="M10" t="n">
-        <v>824.219460709659</v>
+        <v>824.2194607096588</v>
       </c>
       <c r="N10" t="n">
         <v>1123.088724245823</v>
@@ -4981,31 +4981,31 @@
         <v>1582.113182171024</v>
       </c>
       <c r="Q10" t="n">
-        <v>1636.446120074498</v>
+        <v>1636.446120074497</v>
       </c>
       <c r="R10" t="n">
-        <v>1636.446120074498</v>
+        <v>1533.86271359008</v>
       </c>
       <c r="S10" t="n">
-        <v>1636.446120074498</v>
+        <v>1337.233965749941</v>
       </c>
       <c r="T10" t="n">
-        <v>1636.446120074498</v>
+        <v>1114.255484944676</v>
       </c>
       <c r="U10" t="n">
-        <v>1636.446120074498</v>
+        <v>825.137147448514</v>
       </c>
       <c r="V10" t="n">
-        <v>1636.446120074498</v>
+        <v>570.4526592426272</v>
       </c>
       <c r="W10" t="n">
-        <v>1347.028950037537</v>
+        <v>281.0354892056666</v>
       </c>
       <c r="X10" t="n">
-        <v>1119.03939913952</v>
+        <v>232.8952513982428</v>
       </c>
       <c r="Y10" t="n">
-        <v>898.2468199959895</v>
+        <v>232.8952513982428</v>
       </c>
     </row>
     <row r="11">
@@ -5015,43 +5015,43 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>2317.776026551876</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C11" t="n">
-        <v>1948.813509611465</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D11" t="n">
-        <v>1590.547811004715</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E11" t="n">
-        <v>1204.75955840647</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F11" t="n">
-        <v>793.7736536168627</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G11" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H11" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I11" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J11" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K11" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L11" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332388</v>
       </c>
       <c r="M11" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N11" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O11" t="n">
         <v>3640.422291068011</v>
@@ -5060,31 +5060,31 @@
         <v>4194.413870694709</v>
       </c>
       <c r="Q11" t="n">
-        <v>4562.265728852258</v>
+        <v>4562.265728852256</v>
       </c>
       <c r="R11" t="n">
-        <v>4690.833152398596</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S11" t="n">
-        <v>4606.285157492581</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T11" t="n">
-        <v>4405.252601474786</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U11" t="n">
-        <v>4151.812499466575</v>
+        <v>4151.812499466574</v>
       </c>
       <c r="V11" t="n">
-        <v>3820.749612123004</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W11" t="n">
-        <v>3467.98095685289</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X11" t="n">
-        <v>3094.51519859181</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y11" t="n">
-        <v>2704.375866615998</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="12">
@@ -5112,16 +5112,16 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I12" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J12" t="n">
-        <v>243.4633055756267</v>
+        <v>243.4633055756266</v>
       </c>
       <c r="K12" t="n">
-        <v>577.3880777468473</v>
+        <v>577.3880777468471</v>
       </c>
       <c r="L12" t="n">
         <v>1072.713683962606</v>
@@ -5130,16 +5130,16 @@
         <v>1670.092171589158</v>
       </c>
       <c r="N12" t="n">
-        <v>2297.690135143765</v>
+        <v>1670.092171589158</v>
       </c>
       <c r="O12" t="n">
-        <v>2553.061288060775</v>
+        <v>2222.001901828445</v>
       </c>
       <c r="P12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q12" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R12" t="n">
         <v>2553.061288060775</v>
@@ -5173,28 +5173,28 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>513.8536007400721</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="C13" t="n">
-        <v>402.7245934908939</v>
+        <v>699.7311804011399</v>
       </c>
       <c r="D13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="E13" t="n">
-        <v>402.7245934908939</v>
+        <v>549.6145409888042</v>
       </c>
       <c r="F13" t="n">
-        <v>402.7245934908939</v>
+        <v>402.7245934908938</v>
       </c>
       <c r="G13" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I13" t="n">
-        <v>93.81666304797193</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J13" t="n">
         <v>174.0526814782958</v>
@@ -5206,7 +5206,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M13" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N13" t="n">
         <v>1665.560112570818</v>
@@ -5215,13 +5215,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P13" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q13" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R13" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S13" t="n">
         <v>2197.062545487568</v>
@@ -5239,10 +5239,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X13" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y13" t="n">
-        <v>695.5020655703119</v>
+        <v>699.7311804011399</v>
       </c>
     </row>
     <row r="14">
@@ -5255,7 +5255,7 @@
         <v>2317.776026551875</v>
       </c>
       <c r="C14" t="n">
-        <v>1948.813509611464</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D14" t="n">
         <v>1590.547811004713</v>
@@ -5264,49 +5264,49 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F14" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G14" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H14" t="n">
-        <v>93.8166630479719</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I14" t="n">
-        <v>95.34095638192503</v>
+        <v>95.34095638192605</v>
       </c>
       <c r="J14" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111716</v>
       </c>
       <c r="K14" t="n">
-        <v>852.8523611075802</v>
+        <v>852.8523611075816</v>
       </c>
       <c r="L14" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332389</v>
       </c>
       <c r="M14" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.55866301478</v>
       </c>
       <c r="N14" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355938</v>
       </c>
       <c r="O14" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068011</v>
       </c>
       <c r="P14" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694709</v>
       </c>
       <c r="Q14" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852257</v>
       </c>
       <c r="R14" t="n">
-        <v>4690.833152398593</v>
+        <v>4690.833152398594</v>
       </c>
       <c r="S14" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492579</v>
       </c>
       <c r="T14" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474785</v>
       </c>
       <c r="U14" t="n">
         <v>4151.812499466573</v>
@@ -5340,7 +5340,7 @@
         <v>620.0116743354683</v>
       </c>
       <c r="E15" t="n">
-        <v>460.7742193300128</v>
+        <v>460.7742193300129</v>
       </c>
       <c r="F15" t="n">
         <v>314.2396613568978</v>
@@ -5349,34 +5349,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H15" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="I15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="J15" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273906</v>
       </c>
       <c r="K15" t="n">
-        <v>427.7414352191926</v>
+        <v>429.5088224239597</v>
       </c>
       <c r="L15" t="n">
-        <v>923.0670414349515</v>
+        <v>924.8344286397185</v>
       </c>
       <c r="M15" t="n">
-        <v>1520.445529061504</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N15" t="n">
-        <v>2148.043492616111</v>
+        <v>2149.810879820877</v>
       </c>
       <c r="O15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P15" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q15" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R15" t="n">
         <v>2553.061288060775</v>
@@ -5410,28 +5410,28 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>513.8536007400721</v>
+        <v>513.8536007400717</v>
       </c>
       <c r="C16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="D16" t="n">
-        <v>344.9174178121652</v>
+        <v>344.9174178121648</v>
       </c>
       <c r="E16" t="n">
-        <v>344.9174178121652</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="F16" t="n">
-        <v>344.9174178121652</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="G16" t="n">
-        <v>177.7213185270452</v>
+        <v>197.0043242297717</v>
       </c>
       <c r="H16" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I16" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797189</v>
       </c>
       <c r="J16" t="n">
         <v>174.0526814782958</v>
@@ -5443,7 +5443,7 @@
         <v>826.1405381797747</v>
       </c>
       <c r="M16" t="n">
-        <v>1248.15024091081</v>
+        <v>1248.150240910809</v>
       </c>
       <c r="N16" t="n">
         <v>1665.560112570818</v>
@@ -5452,13 +5452,13 @@
         <v>2035.089393279803</v>
       </c>
       <c r="P16" t="n">
-        <v>2327.764848853362</v>
+        <v>2327.764848853361</v>
       </c>
       <c r="Q16" t="n">
         <v>2446.963083580261</v>
       </c>
       <c r="R16" t="n">
-        <v>2379.917379832664</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S16" t="n">
         <v>2197.062545487568</v>
@@ -5476,10 +5476,10 @@
         <v>1144.284195611859</v>
       </c>
       <c r="X16" t="n">
-        <v>916.294644713842</v>
+        <v>916.2946447138415</v>
       </c>
       <c r="Y16" t="n">
-        <v>695.5020655703119</v>
+        <v>695.5020655703114</v>
       </c>
     </row>
     <row r="17">
@@ -5495,13 +5495,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D17" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E17" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F17" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G17" t="n">
         <v>379.8308874362686</v>
@@ -5510,13 +5510,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I17" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J17" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K17" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075811</v>
       </c>
       <c r="L17" t="n">
         <v>1478.611553332388</v>
@@ -5595,25 +5595,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K18" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L18" t="n">
-        <v>119.290296770379</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M18" t="n">
-        <v>716.6687843969308</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N18" t="n">
-        <v>1344.266747951538</v>
+        <v>1307.627092998424</v>
       </c>
       <c r="O18" t="n">
-        <v>1896.176478190825</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P18" t="n">
-        <v>2319.799627685893</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q18" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R18" t="n">
         <v>2553.061288060775</v>
@@ -5647,22 +5647,22 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>513.8536007400712</v>
+        <v>695.5020655703109</v>
       </c>
       <c r="C19" t="n">
-        <v>344.9174178121643</v>
+        <v>526.5658826424041</v>
       </c>
       <c r="D19" t="n">
-        <v>344.9174178121643</v>
+        <v>376.4492432300683</v>
       </c>
       <c r="E19" t="n">
-        <v>344.9174178121643</v>
+        <v>322.7933138979686</v>
       </c>
       <c r="F19" t="n">
-        <v>344.9174178121643</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G19" t="n">
-        <v>317.6151975578602</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H19" t="n">
         <v>175.9033664000583</v>
@@ -5747,22 +5747,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I20" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J20" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K20" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075813</v>
       </c>
       <c r="L20" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M20" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N20" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O20" t="n">
         <v>3640.42229106801</v>
@@ -5786,13 +5786,13 @@
         <v>4151.812499466573</v>
       </c>
       <c r="V20" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123003</v>
       </c>
       <c r="W20" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852889</v>
       </c>
       <c r="X20" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591809</v>
       </c>
       <c r="Y20" t="n">
         <v>2704.375866615997</v>
@@ -5826,25 +5826,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I21" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J21" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K21" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L21" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M21" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N21" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O21" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P21" t="n">
         <v>2283.159972732779</v>
@@ -5884,22 +5884,22 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>513.8536007400712</v>
+        <v>726.955532171245</v>
       </c>
       <c r="C22" t="n">
-        <v>344.9174178121643</v>
+        <v>558.0193492433381</v>
       </c>
       <c r="D22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="E22" t="n">
-        <v>344.9174178121643</v>
+        <v>407.9027098310023</v>
       </c>
       <c r="F22" t="n">
-        <v>344.9174178121643</v>
+        <v>261.0127623330919</v>
       </c>
       <c r="G22" t="n">
-        <v>235.5284942057738</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="H22" t="n">
         <v>93.81666304797187</v>
@@ -5950,10 +5950,10 @@
         <v>1144.284195611858</v>
       </c>
       <c r="X22" t="n">
-        <v>916.2946447138411</v>
+        <v>947.7481113147751</v>
       </c>
       <c r="Y22" t="n">
-        <v>695.5020655703109</v>
+        <v>726.955532171245</v>
       </c>
     </row>
     <row r="23">
@@ -5963,43 +5963,43 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>2317.776026551874</v>
+        <v>2317.776026551875</v>
       </c>
       <c r="C23" t="n">
-        <v>1948.813509611462</v>
+        <v>1948.813509611463</v>
       </c>
       <c r="D23" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E23" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F23" t="n">
-        <v>793.7736536168609</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G23" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H23" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I23" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192503</v>
       </c>
       <c r="J23" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111703</v>
       </c>
       <c r="K23" t="n">
-        <v>852.8523611075807</v>
+        <v>852.8523611075798</v>
       </c>
       <c r="L23" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M23" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N23" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O23" t="n">
         <v>3640.42229106801</v>
@@ -6020,19 +6020,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U23" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V23" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W23" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X23" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y23" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="24">
@@ -6072,10 +6072,10 @@
         <v>93.81666304797187</v>
       </c>
       <c r="L24" t="n">
-        <v>93.81666304797187</v>
+        <v>589.1422692637307</v>
       </c>
       <c r="M24" t="n">
-        <v>680.0291294438176</v>
+        <v>1186.520756890282</v>
       </c>
       <c r="N24" t="n">
         <v>1307.627092998424</v>
@@ -6121,76 +6121,76 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>571.6607764188008</v>
+        <v>741.843151638089</v>
       </c>
       <c r="C25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="D25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="E25" t="n">
-        <v>402.7245934908939</v>
+        <v>572.9069687101821</v>
       </c>
       <c r="F25" t="n">
-        <v>402.7245934908939</v>
+        <v>426.0170212122717</v>
       </c>
       <c r="G25" t="n">
-        <v>235.5284942057738</v>
+        <v>317.6151975578601</v>
       </c>
       <c r="H25" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I25" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="J25" t="n">
-        <v>174.0526814782957</v>
+        <v>174.0526814782958</v>
       </c>
       <c r="K25" t="n">
-        <v>435.7419440038343</v>
+        <v>435.7419440038345</v>
       </c>
       <c r="L25" t="n">
-        <v>826.1405381797745</v>
+        <v>826.1405381797747</v>
       </c>
       <c r="M25" t="n">
         <v>1248.150240910809</v>
       </c>
       <c r="N25" t="n">
-        <v>1665.560112570817</v>
+        <v>1665.560112570818</v>
       </c>
       <c r="O25" t="n">
-        <v>2035.089393279802</v>
+        <v>2035.089393279803</v>
       </c>
       <c r="P25" t="n">
         <v>2327.764848853361</v>
       </c>
       <c r="Q25" t="n">
-        <v>2446.96308358026</v>
+        <v>2446.963083580261</v>
       </c>
       <c r="R25" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S25" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487568</v>
       </c>
       <c r="T25" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510509</v>
       </c>
       <c r="U25" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854707</v>
       </c>
       <c r="V25" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.70136564882</v>
       </c>
       <c r="W25" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="X25" t="n">
-        <v>974.1018203925706</v>
+        <v>1144.284195611859</v>
       </c>
       <c r="Y25" t="n">
-        <v>753.3092412490405</v>
+        <v>923.4916164683287</v>
       </c>
     </row>
     <row r="26">
@@ -6206,31 +6206,31 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D26" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E26" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F26" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G26" t="n">
         <v>379.8308874362686</v>
       </c>
       <c r="H26" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I26" t="n">
-        <v>95.34095638192548</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J26" t="n">
-        <v>378.1925803111708</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K26" t="n">
-        <v>852.85236110758</v>
+        <v>852.8523611075805</v>
       </c>
       <c r="L26" t="n">
-        <v>1478.611553332386</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M26" t="n">
         <v>2206.558663014778</v>
@@ -6242,34 +6242,34 @@
         <v>3640.422291068009</v>
       </c>
       <c r="P26" t="n">
-        <v>4194.413870694706</v>
+        <v>4194.413870694707</v>
       </c>
       <c r="Q26" t="n">
-        <v>4562.265728852254</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R26" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S26" t="n">
-        <v>4606.285157492577</v>
+        <v>4606.285157492578</v>
       </c>
       <c r="T26" t="n">
-        <v>4405.252601474783</v>
+        <v>4405.252601474784</v>
       </c>
       <c r="U26" t="n">
-        <v>4151.812499466572</v>
+        <v>4151.812499466573</v>
       </c>
       <c r="V26" t="n">
-        <v>3820.749612123001</v>
+        <v>3820.749612123002</v>
       </c>
       <c r="W26" t="n">
-        <v>3467.980956852887</v>
+        <v>3467.980956852888</v>
       </c>
       <c r="X26" t="n">
-        <v>3094.515198591807</v>
+        <v>3094.515198591808</v>
       </c>
       <c r="Y26" t="n">
-        <v>2704.375866615996</v>
+        <v>2704.375866615997</v>
       </c>
     </row>
     <row r="27">
@@ -6297,28 +6297,28 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H27" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="L27" t="n">
-        <v>93.81666304797186</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="M27" t="n">
-        <v>680.0291294438176</v>
+        <v>692.9625378792909</v>
       </c>
       <c r="N27" t="n">
-        <v>1307.627092998424</v>
+        <v>1320.560501433898</v>
       </c>
       <c r="O27" t="n">
-        <v>1859.536823237711</v>
+        <v>1872.470231673185</v>
       </c>
       <c r="P27" t="n">
         <v>2283.159972732779</v>
@@ -6358,28 +6358,28 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>513.8536007400712</v>
+        <v>552.3777707160738</v>
       </c>
       <c r="C28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="D28" t="n">
-        <v>344.9174178121643</v>
+        <v>383.4415877881669</v>
       </c>
       <c r="E28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F28" t="n">
-        <v>344.9174178121643</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G28" t="n">
         <v>235.5284942057738</v>
       </c>
       <c r="H28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I28" t="n">
-        <v>93.81666304797186</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J28" t="n">
         <v>174.0526814782957</v>
@@ -6421,13 +6421,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W28" t="n">
-        <v>1144.284195611858</v>
+        <v>1182.808365587861</v>
       </c>
       <c r="X28" t="n">
-        <v>916.2946447138411</v>
+        <v>954.8188146898436</v>
       </c>
       <c r="Y28" t="n">
-        <v>695.5020655703109</v>
+        <v>734.0262355463135</v>
       </c>
     </row>
     <row r="29">
@@ -6443,25 +6443,25 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D29" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E29" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F29" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G29" t="n">
-        <v>379.8308874362681</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H29" t="n">
-        <v>93.81666304797187</v>
+        <v>93.8166630479716</v>
       </c>
       <c r="I29" t="n">
-        <v>95.34095638192592</v>
+        <v>95.34095638192593</v>
       </c>
       <c r="J29" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K29" t="n">
         <v>852.8523611075807</v>
@@ -6537,31 +6537,31 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I30" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J30" t="n">
-        <v>243.4633055756266</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K30" t="n">
-        <v>577.3880777468471</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L30" t="n">
-        <v>1072.713683962606</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M30" t="n">
-        <v>1670.092171589158</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N30" t="n">
-        <v>2297.690135143765</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O30" t="n">
-        <v>2553.061288060775</v>
+        <v>1859.536823237711</v>
       </c>
       <c r="P30" t="n">
-        <v>2553.061288060775</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="Q30" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R30" t="n">
         <v>2553.061288060775</v>
@@ -6595,25 +6595,25 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>571.6607764188008</v>
+        <v>662.1522880254209</v>
       </c>
       <c r="C31" t="n">
-        <v>402.7245934908939</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F31" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G31" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H31" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I31" t="n">
         <v>93.81666304797187</v>
@@ -6658,13 +6658,13 @@
         <v>1433.701365648819</v>
       </c>
       <c r="W31" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X31" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y31" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="32">
@@ -6674,76 +6674,76 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C32" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D32" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E32" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406467</v>
       </c>
       <c r="F32" t="n">
-        <v>793.7736536168612</v>
+        <v>793.7736536168597</v>
       </c>
       <c r="G32" t="n">
-        <v>379.8308874362687</v>
+        <v>379.8308874362686</v>
       </c>
       <c r="H32" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I32" t="n">
-        <v>95.34095638192595</v>
+        <v>95.34095638192548</v>
       </c>
       <c r="J32" t="n">
-        <v>378.1925803111715</v>
+        <v>378.1925803111708</v>
       </c>
       <c r="K32" t="n">
-        <v>852.8523611075807</v>
+        <v>852.85236110758</v>
       </c>
       <c r="L32" t="n">
-        <v>1478.611553332387</v>
+        <v>1478.611553332386</v>
       </c>
       <c r="M32" t="n">
-        <v>2206.558663014779</v>
+        <v>2206.558663014778</v>
       </c>
       <c r="N32" t="n">
-        <v>2950.898526355937</v>
+        <v>2950.898526355936</v>
       </c>
       <c r="O32" t="n">
         <v>3640.422291068009</v>
       </c>
       <c r="P32" t="n">
-        <v>4194.413870694707</v>
+        <v>4194.413870694706</v>
       </c>
       <c r="Q32" t="n">
-        <v>4562.265728852255</v>
+        <v>4562.265728852254</v>
       </c>
       <c r="R32" t="n">
         <v>4690.833152398593</v>
       </c>
       <c r="S32" t="n">
-        <v>4606.285157492578</v>
+        <v>4606.285157492577</v>
       </c>
       <c r="T32" t="n">
-        <v>4405.252601474784</v>
+        <v>4405.252601474783</v>
       </c>
       <c r="U32" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V32" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W32" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X32" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y32" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="33">
@@ -6771,34 +6771,34 @@
         <v>178.4809954028057</v>
       </c>
       <c r="H33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="I33" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J33" t="n">
-        <v>243.4633055756266</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="K33" t="n">
-        <v>577.3880777468471</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L33" t="n">
-        <v>1072.713683962606</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="M33" t="n">
-        <v>1670.092171589158</v>
+        <v>1025.119922845744</v>
       </c>
       <c r="N33" t="n">
-        <v>2297.690135143765</v>
+        <v>1652.717886400351</v>
       </c>
       <c r="O33" t="n">
-        <v>2553.061288060775</v>
+        <v>2092.798483612594</v>
       </c>
       <c r="P33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="Q33" t="n">
-        <v>2553.061288060775</v>
+        <v>2516.421633107662</v>
       </c>
       <c r="R33" t="n">
         <v>2553.061288060775</v>
@@ -6835,25 +6835,25 @@
         <v>513.8536007400712</v>
       </c>
       <c r="C34" t="n">
-        <v>344.9174178121643</v>
+        <v>493.2161050975141</v>
       </c>
       <c r="D34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="E34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F34" t="n">
-        <v>344.9174178121643</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G34" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="H34" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000582</v>
       </c>
       <c r="I34" t="n">
-        <v>93.81666304797187</v>
+        <v>93.81666304797186</v>
       </c>
       <c r="J34" t="n">
         <v>174.0526814782957</v>
@@ -6917,13 +6917,13 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D35" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E35" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F35" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168607</v>
       </c>
       <c r="G35" t="n">
         <v>379.8308874362686</v>
@@ -6932,22 +6932,22 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I35" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192599</v>
       </c>
       <c r="J35" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K35" t="n">
         <v>852.8523611075807</v>
       </c>
       <c r="L35" t="n">
-        <v>1478.611553332388</v>
+        <v>1478.611553332387</v>
       </c>
       <c r="M35" t="n">
-        <v>2206.55866301478</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N35" t="n">
-        <v>2950.898526355938</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O35" t="n">
         <v>3640.42229106801</v>
@@ -6956,7 +6956,7 @@
         <v>4194.413870694707</v>
       </c>
       <c r="Q35" t="n">
-        <v>4562.265728852256</v>
+        <v>4562.265728852255</v>
       </c>
       <c r="R35" t="n">
         <v>4690.833152398593</v>
@@ -7011,28 +7011,28 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I36" t="n">
-        <v>95.58405025273903</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="J36" t="n">
-        <v>245.2306927803937</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="K36" t="n">
-        <v>579.1554649516142</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="L36" t="n">
-        <v>1074.481071167373</v>
+        <v>589.1422692637306</v>
       </c>
       <c r="M36" t="n">
-        <v>1671.859558793925</v>
+        <v>716.6687843969308</v>
       </c>
       <c r="N36" t="n">
-        <v>2299.457522348532</v>
+        <v>1344.266747951538</v>
       </c>
       <c r="O36" t="n">
-        <v>2553.061288060775</v>
+        <v>1896.176478190825</v>
       </c>
       <c r="P36" t="n">
-        <v>2553.061288060775</v>
+        <v>2319.799627685893</v>
       </c>
       <c r="Q36" t="n">
         <v>2553.061288060775</v>
@@ -7069,19 +7069,19 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="D37" t="n">
-        <v>402.7245934908939</v>
+        <v>344.9174178121643</v>
       </c>
       <c r="E37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="F37" t="n">
-        <v>402.7245934908939</v>
+        <v>235.5284942057738</v>
       </c>
       <c r="G37" t="n">
         <v>235.5284942057738</v>
@@ -7126,19 +7126,19 @@
         <v>1977.461080510508</v>
       </c>
       <c r="U37" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V37" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W37" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X37" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y37" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="38">
@@ -7154,28 +7154,28 @@
         <v>1948.813509611463</v>
       </c>
       <c r="D38" t="n">
-        <v>1590.547811004712</v>
+        <v>1590.547811004713</v>
       </c>
       <c r="E38" t="n">
-        <v>1204.759558406468</v>
+        <v>1204.759558406469</v>
       </c>
       <c r="F38" t="n">
-        <v>793.7736536168607</v>
+        <v>793.7736536168611</v>
       </c>
       <c r="G38" t="n">
-        <v>379.8308874362686</v>
+        <v>379.8308874362683</v>
       </c>
       <c r="H38" t="n">
         <v>93.81666304797187</v>
       </c>
       <c r="I38" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192616</v>
       </c>
       <c r="J38" t="n">
-        <v>378.1925803111712</v>
+        <v>378.1925803111717</v>
       </c>
       <c r="K38" t="n">
-        <v>852.8523611075805</v>
+        <v>852.8523611075809</v>
       </c>
       <c r="L38" t="n">
         <v>1478.611553332387</v>
@@ -7254,25 +7254,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="K39" t="n">
-        <v>93.81666304797187</v>
+        <v>427.7414352191925</v>
       </c>
       <c r="L39" t="n">
-        <v>93.81666304797187</v>
+        <v>923.0670414349511</v>
       </c>
       <c r="M39" t="n">
-        <v>680.0291294438176</v>
+        <v>1520.445529061503</v>
       </c>
       <c r="N39" t="n">
-        <v>1307.627092998424</v>
+        <v>2001.151557821488</v>
       </c>
       <c r="O39" t="n">
-        <v>1859.536823237711</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="P39" t="n">
-        <v>2283.159972732779</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="Q39" t="n">
-        <v>2516.421633107662</v>
+        <v>2553.061288060775</v>
       </c>
       <c r="R39" t="n">
         <v>2553.061288060775</v>
@@ -7306,25 +7306,25 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>571.6607764188008</v>
+        <v>513.8536007400712</v>
       </c>
       <c r="C40" t="n">
-        <v>402.7245934908939</v>
+        <v>473.9330993947872</v>
       </c>
       <c r="D40" t="n">
-        <v>402.7245934908939</v>
+        <v>323.8164599824514</v>
       </c>
       <c r="E40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="F40" t="n">
-        <v>402.7245934908939</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="G40" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H40" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I40" t="n">
         <v>93.81666304797187</v>
@@ -7357,25 +7357,25 @@
         <v>2379.917379832663</v>
       </c>
       <c r="S40" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T40" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U40" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V40" t="n">
-        <v>1491.508541327549</v>
+        <v>1433.701365648819</v>
       </c>
       <c r="W40" t="n">
-        <v>1202.091371290588</v>
+        <v>1144.284195611858</v>
       </c>
       <c r="X40" t="n">
-        <v>974.1018203925706</v>
+        <v>916.2946447138411</v>
       </c>
       <c r="Y40" t="n">
-        <v>753.3092412490405</v>
+        <v>695.5020655703109</v>
       </c>
     </row>
     <row r="41">
@@ -7385,19 +7385,19 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>2317.776026551875</v>
+        <v>2317.776026551874</v>
       </c>
       <c r="C41" t="n">
-        <v>1948.813509611463</v>
+        <v>1948.813509611462</v>
       </c>
       <c r="D41" t="n">
-        <v>1590.547811004713</v>
+        <v>1590.547811004712</v>
       </c>
       <c r="E41" t="n">
-        <v>1204.759558406469</v>
+        <v>1204.759558406468</v>
       </c>
       <c r="F41" t="n">
-        <v>793.7736536168613</v>
+        <v>793.7736536168609</v>
       </c>
       <c r="G41" t="n">
         <v>379.8308874362683</v>
@@ -7406,13 +7406,13 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I41" t="n">
-        <v>95.3409563819265</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J41" t="n">
-        <v>378.192580311172</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K41" t="n">
-        <v>852.8523611075813</v>
+        <v>852.8523611075807</v>
       </c>
       <c r="L41" t="n">
         <v>1478.611553332387</v>
@@ -7424,7 +7424,7 @@
         <v>2950.898526355937</v>
       </c>
       <c r="O41" t="n">
-        <v>3640.42229106801</v>
+        <v>3640.422291068009</v>
       </c>
       <c r="P41" t="n">
         <v>4194.413870694707</v>
@@ -7442,19 +7442,19 @@
         <v>4405.252601474784</v>
       </c>
       <c r="U41" t="n">
-        <v>4151.812499466573</v>
+        <v>4151.812499466572</v>
       </c>
       <c r="V41" t="n">
-        <v>3820.749612123002</v>
+        <v>3820.749612123001</v>
       </c>
       <c r="W41" t="n">
-        <v>3467.980956852888</v>
+        <v>3467.980956852887</v>
       </c>
       <c r="X41" t="n">
-        <v>3094.515198591808</v>
+        <v>3094.515198591807</v>
       </c>
       <c r="Y41" t="n">
-        <v>2704.375866615997</v>
+        <v>2704.375866615996</v>
       </c>
     </row>
     <row r="42">
@@ -7485,25 +7485,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J42" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="K42" t="n">
-        <v>93.81666304797187</v>
+        <v>429.5088224239596</v>
       </c>
       <c r="L42" t="n">
-        <v>93.81666304797187</v>
+        <v>924.8344286397182</v>
       </c>
       <c r="M42" t="n">
-        <v>680.0291294438176</v>
+        <v>1522.21291626627</v>
       </c>
       <c r="N42" t="n">
-        <v>1307.627092998424</v>
+        <v>1731.250242493492</v>
       </c>
       <c r="O42" t="n">
-        <v>1859.536823237711</v>
+        <v>2283.159972732779</v>
       </c>
       <c r="P42" t="n">
         <v>2283.159972732779</v>
@@ -7543,25 +7543,25 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>513.8536007400712</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="C43" t="n">
-        <v>407.9027098310023</v>
+        <v>788.0191461778176</v>
       </c>
       <c r="D43" t="n">
-        <v>407.9027098310023</v>
+        <v>637.9025067654818</v>
       </c>
       <c r="E43" t="n">
-        <v>407.9027098310023</v>
+        <v>489.9894131830887</v>
       </c>
       <c r="F43" t="n">
-        <v>261.0127623330919</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H43" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I43" t="n">
         <v>93.81666304797187</v>
@@ -7597,22 +7597,22 @@
         <v>2197.062545487567</v>
       </c>
       <c r="T43" t="n">
-        <v>1977.461080510508</v>
+        <v>2023.637075050237</v>
       </c>
       <c r="U43" t="n">
-        <v>1688.385853854706</v>
+        <v>1734.561848394435</v>
       </c>
       <c r="V43" t="n">
-        <v>1433.701365648819</v>
+        <v>1479.877360188548</v>
       </c>
       <c r="W43" t="n">
-        <v>1144.284195611858</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="X43" t="n">
-        <v>916.2946447138411</v>
+        <v>1190.460190151587</v>
       </c>
       <c r="Y43" t="n">
-        <v>695.5020655703109</v>
+        <v>969.6676110080573</v>
       </c>
     </row>
     <row r="44">
@@ -7634,19 +7634,19 @@
         <v>1204.759558406469</v>
       </c>
       <c r="F44" t="n">
-        <v>793.7736536168611</v>
+        <v>793.7736536168613</v>
       </c>
       <c r="G44" t="n">
-        <v>379.8308874362683</v>
+        <v>379.8308874362687</v>
       </c>
       <c r="H44" t="n">
-        <v>93.8166630479716</v>
+        <v>93.81666304797187</v>
       </c>
       <c r="I44" t="n">
-        <v>95.34095638192593</v>
+        <v>95.34095638192595</v>
       </c>
       <c r="J44" t="n">
-        <v>378.1925803111717</v>
+        <v>378.1925803111715</v>
       </c>
       <c r="K44" t="n">
         <v>852.8523611075807</v>
@@ -7655,13 +7655,13 @@
         <v>1478.611553332387</v>
       </c>
       <c r="M44" t="n">
-        <v>2206.558663014778</v>
+        <v>2206.558663014779</v>
       </c>
       <c r="N44" t="n">
-        <v>2950.898526355936</v>
+        <v>2950.898526355937</v>
       </c>
       <c r="O44" t="n">
-        <v>3640.422291068009</v>
+        <v>3640.42229106801</v>
       </c>
       <c r="P44" t="n">
         <v>4194.413870694707</v>
@@ -7722,25 +7722,25 @@
         <v>93.81666304797187</v>
       </c>
       <c r="I45" t="n">
-        <v>93.81666304797187</v>
+        <v>95.58405025273903</v>
       </c>
       <c r="J45" t="n">
-        <v>93.81666304797187</v>
+        <v>245.2306927803937</v>
       </c>
       <c r="K45" t="n">
-        <v>93.81666304797187</v>
+        <v>579.1554649516142</v>
       </c>
       <c r="L45" t="n">
-        <v>93.81666304797187</v>
+        <v>1074.481071167373</v>
       </c>
       <c r="M45" t="n">
-        <v>680.0291294438176</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="N45" t="n">
-        <v>1307.627092998424</v>
+        <v>1671.859558793925</v>
       </c>
       <c r="O45" t="n">
-        <v>1859.536823237711</v>
+        <v>2223.769289033212</v>
       </c>
       <c r="P45" t="n">
         <v>2283.159972732779</v>
@@ -7780,25 +7780,25 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>571.6607764188008</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="C46" t="n">
-        <v>402.7245934908939</v>
+        <v>641.1291986799072</v>
       </c>
       <c r="D46" t="n">
-        <v>402.7245934908939</v>
+        <v>491.0125592675714</v>
       </c>
       <c r="E46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="F46" t="n">
-        <v>402.7245934908939</v>
+        <v>343.0994656851783</v>
       </c>
       <c r="G46" t="n">
-        <v>235.5284942057738</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="H46" t="n">
-        <v>93.81666304797187</v>
+        <v>175.9033664000583</v>
       </c>
       <c r="I46" t="n">
         <v>93.81666304797187</v>
@@ -7828,28 +7828,28 @@
         <v>2446.96308358026</v>
       </c>
       <c r="R46" t="n">
-        <v>2437.724555511392</v>
+        <v>2379.917379832663</v>
       </c>
       <c r="S46" t="n">
-        <v>2254.869721166297</v>
+        <v>2197.062545487567</v>
       </c>
       <c r="T46" t="n">
-        <v>2035.268256189238</v>
+        <v>1977.461080510508</v>
       </c>
       <c r="U46" t="n">
-        <v>1746.193029533436</v>
+        <v>1688.385853854706</v>
       </c>
       <c r="V46" t="n">
-        <v>1491.508541327549</v>
+        <v>1560.976963588655</v>
       </c>
       <c r="W46" t="n">
-        <v>1202.091371290588</v>
+        <v>1271.559793551694</v>
       </c>
       <c r="X46" t="n">
-        <v>974.1018203925706</v>
+        <v>1043.570242653677</v>
       </c>
       <c r="Y46" t="n">
-        <v>753.3092412490405</v>
+        <v>822.7776635101469</v>
       </c>
     </row>
   </sheetData>
@@ -8058,13 +8058,13 @@
         <v>0</v>
       </c>
       <c r="K3" t="n">
-        <v>264.4652370125786</v>
+        <v>0</v>
       </c>
       <c r="L3" t="n">
-        <v>0</v>
+        <v>342.9044714621886</v>
       </c>
       <c r="M3" t="n">
-        <v>0</v>
+        <v>186.5911984019044</v>
       </c>
       <c r="N3" t="n">
         <v>0</v>
@@ -8073,13 +8073,13 @@
         <v>0</v>
       </c>
       <c r="P3" t="n">
-        <v>265.030432851515</v>
+        <v>0</v>
       </c>
       <c r="Q3" t="n">
         <v>0</v>
       </c>
       <c r="R3" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154991</v>
       </c>
       <c r="S3" t="n">
         <v>0</v>
@@ -8292,7 +8292,7 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J6" t="n">
-        <v>0.9556134883059713</v>
+        <v>126.0910353404088</v>
       </c>
       <c r="K6" t="n">
         <v>0</v>
@@ -8304,19 +8304,19 @@
         <v>0</v>
       </c>
       <c r="N6" t="n">
-        <v>0</v>
+        <v>193.3273467878344</v>
       </c>
       <c r="O6" t="n">
         <v>0</v>
       </c>
       <c r="P6" t="n">
-        <v>318.4627686399372</v>
+        <v>0</v>
       </c>
       <c r="Q6" t="n">
         <v>210.0772877358491</v>
       </c>
       <c r="R6" t="n">
-        <v>20.93778120154985</v>
+        <v>20.93778120154988</v>
       </c>
       <c r="S6" t="n">
         <v>0</v>
@@ -8529,16 +8529,16 @@
         <v>10.12574714858493</v>
       </c>
       <c r="J9" t="n">
-        <v>126.0910353404088</v>
+        <v>0</v>
       </c>
       <c r="K9" t="n">
-        <v>193.3273467878341</v>
+        <v>264.4652370125786</v>
       </c>
       <c r="L9" t="n">
         <v>0</v>
       </c>
       <c r="M9" t="n">
-        <v>0</v>
+        <v>30.36925650589399</v>
       </c>
       <c r="N9" t="n">
         <v>0</v>
@@ -8553,7 +8553,7 @@
         <v>210.0772877358491</v>
       </c>
       <c r="R9" t="n">
-        <v>20.93778120154985</v>
+        <v>45.52166981132082</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -9647,7 +9647,7 @@
         <v>0</v>
       </c>
       <c r="N23" t="n">
-        <v>3.410605131648481e-13</v>
+        <v>0</v>
       </c>
       <c r="O23" t="n">
         <v>0</v>
@@ -11075,7 +11075,7 @@
         <v>0</v>
       </c>
       <c r="P41" t="n">
-        <v>0</v>
+        <v>4.547473508864641e-13</v>
       </c>
       <c r="Q41" t="n">
         <v>0</v>
@@ -23413,19 +23413,19 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C13" t="n">
-        <v>57.22910392194137</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D13" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E13" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F13" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G13" t="n">
         <v>0</v>
@@ -23434,7 +23434,7 @@
         <v>0</v>
       </c>
       <c r="I13" t="n">
-        <v>81.2658363185655</v>
+        <v>81.26583631856552</v>
       </c>
       <c r="J13" t="n">
         <v>0</v>
@@ -23482,7 +23482,7 @@
         <v>0</v>
       </c>
       <c r="Y13" t="n">
-        <v>0</v>
+        <v>4.186823682520185</v>
       </c>
     </row>
     <row r="14">
@@ -23659,19 +23659,19 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E16" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F16" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G16" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H16" t="n">
-        <v>57.22910392194129</v>
+        <v>119.4047645948076</v>
       </c>
       <c r="I16" t="n">
-        <v>81.2658363185655</v>
+        <v>0</v>
       </c>
       <c r="J16" t="n">
         <v>0</v>
@@ -23887,25 +23887,25 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C19" t="n">
         <v>0</v>
       </c>
       <c r="D19" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E19" t="n">
-        <v>146.4339626465692</v>
+        <v>93.3145926077905</v>
       </c>
       <c r="F19" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G19" t="n">
-        <v>138.4949402405078</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H19" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I19" t="n">
         <v>0</v>
@@ -24124,25 +24124,25 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>0</v>
+        <v>179.8319801819373</v>
       </c>
       <c r="C22" t="n">
         <v>0</v>
       </c>
       <c r="D22" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E22" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F22" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G22" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H22" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I22" t="n">
         <v>81.26583631856553</v>
@@ -24190,7 +24190,7 @@
         <v>0</v>
       </c>
       <c r="X22" t="n">
-        <v>0</v>
+        <v>31.13893193492467</v>
       </c>
       <c r="Y22" t="n">
         <v>0</v>
@@ -24373,16 +24373,16 @@
         <v>146.4339626465692</v>
       </c>
       <c r="F25" t="n">
-        <v>145.4210480229312</v>
+        <v>0</v>
       </c>
       <c r="G25" t="n">
-        <v>0</v>
+        <v>58.20633287440137</v>
       </c>
       <c r="H25" t="n">
         <v>0</v>
       </c>
       <c r="I25" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J25" t="n">
         <v>0</v>
@@ -24409,7 +24409,7 @@
         <v>0</v>
       </c>
       <c r="R25" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S25" t="n">
         <v>0</v>
@@ -24427,7 +24427,7 @@
         <v>0</v>
       </c>
       <c r="X25" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y25" t="n">
         <v>0</v>
@@ -24607,13 +24607,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E28" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F28" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G28" t="n">
-        <v>57.2291039219422</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H28" t="n">
         <v>0</v>
@@ -24661,7 +24661,7 @@
         <v>0</v>
       </c>
       <c r="W28" t="n">
-        <v>0</v>
+        <v>38.13892827624238</v>
       </c>
       <c r="X28" t="n">
         <v>0</v>
@@ -24835,13 +24835,13 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>0</v>
+        <v>146.8157004124962</v>
       </c>
       <c r="C31" t="n">
         <v>0</v>
       </c>
       <c r="D31" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E31" t="n">
         <v>146.4339626465692</v>
@@ -24853,10 +24853,10 @@
         <v>0</v>
       </c>
       <c r="H31" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I31" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J31" t="n">
         <v>0</v>
@@ -24898,7 +24898,7 @@
         <v>0</v>
       </c>
       <c r="W31" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="X31" t="n">
         <v>0</v>
@@ -25075,10 +25075,10 @@
         <v>0</v>
       </c>
       <c r="C34" t="n">
-        <v>0</v>
+        <v>146.8157004124963</v>
       </c>
       <c r="D34" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E34" t="n">
         <v>146.4339626465692</v>
@@ -25087,13 +25087,13 @@
         <v>145.4210480229312</v>
       </c>
       <c r="G34" t="n">
-        <v>57.22910392194223</v>
+        <v>0</v>
       </c>
       <c r="H34" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I34" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J34" t="n">
         <v>0</v>
@@ -25318,13 +25318,13 @@
         <v>148.6154730182124</v>
       </c>
       <c r="E37" t="n">
-        <v>146.4339626465692</v>
+        <v>38.13892827624255</v>
       </c>
       <c r="F37" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G37" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H37" t="n">
         <v>0</v>
@@ -25366,7 +25366,7 @@
         <v>0</v>
       </c>
       <c r="U37" t="n">
-        <v>57.22910392194231</v>
+        <v>0</v>
       </c>
       <c r="V37" t="n">
         <v>0</v>
@@ -25549,25 +25549,25 @@
         <v>0</v>
       </c>
       <c r="C40" t="n">
-        <v>0</v>
+        <v>127.7255247667966</v>
       </c>
       <c r="D40" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E40" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F40" t="n">
         <v>145.4210480229312</v>
       </c>
       <c r="G40" t="n">
-        <v>0</v>
+        <v>165.5241382922688</v>
       </c>
       <c r="H40" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I40" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J40" t="n">
         <v>0</v>
@@ -25597,7 +25597,7 @@
         <v>0</v>
       </c>
       <c r="S40" t="n">
-        <v>57.229103921942</v>
+        <v>0</v>
       </c>
       <c r="T40" t="n">
         <v>0</v>
@@ -25786,13 +25786,13 @@
         <v>0</v>
       </c>
       <c r="C43" t="n">
-        <v>62.35543909864963</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D43" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E43" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F43" t="n">
         <v>0</v>
@@ -25804,7 +25804,7 @@
         <v>140.2947128462239</v>
       </c>
       <c r="I43" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J43" t="n">
         <v>0</v>
@@ -25837,7 +25837,7 @@
         <v>0</v>
       </c>
       <c r="T43" t="n">
-        <v>0</v>
+        <v>45.7142345943316</v>
       </c>
       <c r="U43" t="n">
         <v>0</v>
@@ -25849,7 +25849,7 @@
         <v>0</v>
       </c>
       <c r="X43" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y43" t="n">
         <v>0</v>
@@ -26023,13 +26023,13 @@
         <v>0</v>
       </c>
       <c r="C46" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D46" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E46" t="n">
-        <v>146.4339626465692</v>
+        <v>0</v>
       </c>
       <c r="F46" t="n">
         <v>145.4210480229312</v>
@@ -26038,10 +26038,10 @@
         <v>0</v>
       </c>
       <c r="H46" t="n">
-        <v>0</v>
+        <v>140.2947128462239</v>
       </c>
       <c r="I46" t="n">
-        <v>81.26583631856553</v>
+        <v>0</v>
       </c>
       <c r="J46" t="n">
         <v>0</v>
@@ -26068,7 +26068,7 @@
         <v>0</v>
       </c>
       <c r="R46" t="n">
-        <v>57.2291039219422</v>
+        <v>0</v>
       </c>
       <c r="S46" t="n">
         <v>0</v>
@@ -26080,7 +26080,7 @@
         <v>0</v>
       </c>
       <c r="V46" t="n">
-        <v>0</v>
+        <v>126.0028419604375</v>
       </c>
       <c r="W46" t="n">
         <v>0</v>
@@ -26123,7 +26123,7 @@
         <v>0</v>
       </c>
       <c r="B2" t="n">
-        <v>630230.9679796455</v>
+        <v>630230.9679796454</v>
       </c>
     </row>
     <row r="3">
@@ -26311,49 +26311,49 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642833</v>
       </c>
       <c r="C2" t="n">
-        <v>821041.7698642834</v>
+        <v>821041.7698642835</v>
       </c>
       <c r="D2" t="n">
-        <v>821041.7698642833</v>
+        <v>821041.7698642832</v>
       </c>
       <c r="E2" t="n">
         <v>807146.5996900061</v>
       </c>
       <c r="F2" t="n">
+        <v>807146.5996900058</v>
+      </c>
+      <c r="G2" t="n">
         <v>807146.599690006</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="I2" t="n">
+        <v>807146.599690006</v>
+      </c>
+      <c r="J2" t="n">
         <v>807146.5996900061</v>
       </c>
-      <c r="H2" t="n">
+      <c r="K2" t="n">
+        <v>807146.5996900063</v>
+      </c>
+      <c r="L2" t="n">
         <v>807146.5996900061</v>
-      </c>
-      <c r="I2" t="n">
-        <v>807146.5996900065</v>
-      </c>
-      <c r="J2" t="n">
-        <v>807146.5996900062</v>
-      </c>
-      <c r="K2" t="n">
-        <v>807146.5996900061</v>
-      </c>
-      <c r="L2" t="n">
-        <v>807146.5996900062</v>
       </c>
       <c r="M2" t="n">
         <v>807146.5996900062</v>
       </c>
       <c r="N2" t="n">
-        <v>807146.599690006</v>
+        <v>807146.5996900063</v>
       </c>
       <c r="O2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
       <c r="P2" t="n">
-        <v>807146.5996900061</v>
+        <v>807146.5996900062</v>
       </c>
     </row>
     <row r="3">
@@ -26363,16 +26363,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>1114751.78357592</v>
+        <v>1114751.783575919</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.07046923605958e-10</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>507485.4416245461</v>
+        <v>507485.441624546</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26384,10 +26384,10 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>1.711553068162175e-10</v>
       </c>
       <c r="J3" t="n">
-        <v>167605.1778099826</v>
+        <v>167605.1778099824</v>
       </c>
       <c r="K3" t="n">
         <v>0</v>
@@ -26415,46 +26415,46 @@
         </is>
       </c>
       <c r="B4" t="n">
+        <v>134318.0002618638</v>
+      </c>
+      <c r="C4" t="n">
         <v>134318.0002618637</v>
-      </c>
-      <c r="C4" t="n">
-        <v>134318.0002618636</v>
       </c>
       <c r="D4" t="n">
         <v>134318.0002618637</v>
       </c>
       <c r="E4" t="n">
-        <v>8117.312426731893</v>
+        <v>8117.312426731949</v>
       </c>
       <c r="F4" t="n">
+        <v>8117.31242673194</v>
+      </c>
+      <c r="G4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="H4" t="n">
+        <v>8117.312426731986</v>
+      </c>
+      <c r="I4" t="n">
+        <v>8117.312426731975</v>
+      </c>
+      <c r="J4" t="n">
+        <v>8117.312426731997</v>
+      </c>
+      <c r="K4" t="n">
         <v>8117.312426731974</v>
       </c>
-      <c r="G4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="H4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="I4" t="n">
-        <v>8117.312426731982</v>
-      </c>
-      <c r="J4" t="n">
-        <v>8117.312426732029</v>
-      </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
+        <v>8117.312426732038</v>
+      </c>
+      <c r="M4" t="n">
         <v>8117.312426731998</v>
       </c>
-      <c r="L4" t="n">
-        <v>8117.312426731974</v>
-      </c>
-      <c r="M4" t="n">
-        <v>8117.312426731974</v>
-      </c>
       <c r="N4" t="n">
-        <v>8117.312426731998</v>
+        <v>8117.312426731987</v>
       </c>
       <c r="O4" t="n">
-        <v>8117.312426731974</v>
+        <v>8117.312426731985</v>
       </c>
       <c r="P4" t="n">
         <v>8117.312426731974</v>
@@ -26467,16 +26467,16 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>92937.77243984473</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="C5" t="n">
-        <v>92937.77243984475</v>
+        <v>92937.7724398447</v>
       </c>
       <c r="D5" t="n">
         <v>92937.77243984473</v>
       </c>
       <c r="E5" t="n">
-        <v>101122.5298239072</v>
+        <v>101122.5298239071</v>
       </c>
       <c r="F5" t="n">
         <v>101122.5298239071</v>
@@ -26519,49 +26519,49 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>-520965.786413345</v>
+        <v>-520965.7864133447</v>
       </c>
       <c r="C6" t="n">
-        <v>593785.997162575</v>
+        <v>593785.9971625749</v>
       </c>
       <c r="D6" t="n">
-        <v>593785.9971625749</v>
+        <v>593785.9971625747</v>
       </c>
       <c r="E6" t="n">
-        <v>190421.315814821</v>
+        <v>190386.5778893854</v>
       </c>
       <c r="F6" t="n">
-        <v>697906.757439367</v>
+        <v>697872.0195139311</v>
       </c>
       <c r="G6" t="n">
-        <v>697906.7574393675</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="H6" t="n">
-        <v>697906.7574393671</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="I6" t="n">
-        <v>697906.7574393674</v>
+        <v>697872.0195139312</v>
       </c>
       <c r="J6" t="n">
-        <v>530301.5796293846</v>
+        <v>530266.841703949</v>
       </c>
       <c r="K6" t="n">
-        <v>697906.757439367</v>
+        <v>697872.0195139317</v>
       </c>
       <c r="L6" t="n">
-        <v>697906.7574393672</v>
+        <v>697872.0195139314</v>
       </c>
       <c r="M6" t="n">
-        <v>565299.4637104404</v>
+        <v>565264.7257850047</v>
       </c>
       <c r="N6" t="n">
-        <v>697906.757439367</v>
+        <v>697872.0195139316</v>
       </c>
       <c r="O6" t="n">
-        <v>697906.7574393671</v>
+        <v>697872.0195139315</v>
       </c>
       <c r="P6" t="n">
-        <v>697906.7574393671</v>
+        <v>697872.0195139316</v>
       </c>
     </row>
   </sheetData>
@@ -26707,7 +26707,7 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="K2" t="n">
         <v>0</v>
@@ -26735,13 +26735,13 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="D3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175393</v>
       </c>
       <c r="E3" t="n">
         <v>1367.975500341674</v>
@@ -26787,10 +26787,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
-        <v>640.5848321000392</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="D4" t="n">
         <v>640.584832100039</v>
@@ -26799,7 +26799,7 @@
         <v>1172.708288099649</v>
       </c>
       <c r="F4" t="n">
-        <v>1172.708288099648</v>
+        <v>1172.708288099649</v>
       </c>
       <c r="G4" t="n">
         <v>1172.708288099648</v>
@@ -26917,7 +26917,7 @@
         <v>0</v>
       </c>
       <c r="F2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="G2" t="n">
         <v>0</v>
@@ -26957,16 +26957,16 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>934.0648921175394</v>
+        <v>934.0648921175391</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="D3" t="n">
         <v>0</v>
       </c>
       <c r="E3" t="n">
-        <v>433.9106082241348</v>
+        <v>433.9106082241346</v>
       </c>
       <c r="F3" t="n">
         <v>0</v>
@@ -26978,7 +26978,7 @@
         <v>0</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>2.273736754432321e-13</v>
       </c>
       <c r="J3" t="n">
         <v>0</v>
@@ -27009,7 +27009,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="C4" t="n">
         <v>0</v>
@@ -27018,7 +27018,7 @@
         <v>0</v>
       </c>
       <c r="E4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
@@ -27033,7 +27033,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000389</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27042,7 +27042,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996099</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27154,7 +27154,7 @@
         <v>0</v>
       </c>
       <c r="K2" t="n">
-        <v>6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="L2" t="n">
         <v>0</v>
@@ -27255,7 +27255,7 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>640.5848321000391</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="K4" t="n">
         <v>0</v>
@@ -27264,7 +27264,7 @@
         <v>0</v>
       </c>
       <c r="M4" t="n">
-        <v>532.1234559996101</v>
+        <v>532.1234559996096</v>
       </c>
       <c r="N4" t="n">
         <v>0</v>
@@ -27376,10 +27376,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>0</v>
+        <v>309.784417372699</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D2" t="n">
         <v>354.683041620683</v>
@@ -27388,16 +27388,16 @@
         <v>381.9303700722618</v>
       </c>
       <c r="F2" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G2" t="n">
-        <v>400</v>
+        <v>0</v>
       </c>
       <c r="H2" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I2" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J2" t="n">
         <v>0</v>
@@ -27433,19 +27433,19 @@
         <v>0</v>
       </c>
       <c r="U2" t="n">
-        <v>17.57355537733437</v>
+        <v>0</v>
       </c>
       <c r="V2" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W2" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X2" t="n">
         <v>0</v>
       </c>
       <c r="Y2" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="3">
@@ -27534,25 +27534,25 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>179.8319801819373</v>
+        <v>0</v>
       </c>
       <c r="C4" t="n">
         <v>167.2468210986278</v>
       </c>
       <c r="D4" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E4" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F4" t="n">
         <v>0</v>
       </c>
       <c r="G4" t="n">
-        <v>20.38469396263858</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H4" t="n">
-        <v>147.2515091551288</v>
+        <v>147.2515091551289</v>
       </c>
       <c r="I4" t="n">
         <v>104.7965952039006</v>
@@ -27582,13 +27582,13 @@
         <v>0</v>
       </c>
       <c r="R4" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S4" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T4" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U4" t="n">
         <v>286.2271541212006</v>
@@ -27600,10 +27600,10 @@
         <v>0</v>
       </c>
       <c r="X4" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y4" t="n">
-        <v>0</v>
+        <v>30.1197118244763</v>
       </c>
     </row>
     <row r="5">
@@ -27616,22 +27616,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>257.2563017493414</v>
       </c>
       <c r="D5" t="n">
         <v>0</v>
       </c>
       <c r="E5" t="n">
-        <v>0</v>
+        <v>381.9303700722618</v>
       </c>
       <c r="F5" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G5" t="n">
         <v>400</v>
       </c>
       <c r="H5" t="n">
-        <v>170.0286811191957</v>
+        <v>301.0185525624054</v>
       </c>
       <c r="I5" t="n">
         <v>0</v>
@@ -27664,7 +27664,7 @@
         <v>0</v>
       </c>
       <c r="S5" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T5" t="n">
         <v>206.6581849802338</v>
@@ -27673,13 +27673,13 @@
         <v>251.045250128462</v>
       </c>
       <c r="V5" t="n">
-        <v>327.7522584701349</v>
+        <v>0</v>
       </c>
       <c r="W5" t="n">
-        <v>349.240968717413</v>
+        <v>0</v>
       </c>
       <c r="X5" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y5" t="n">
         <v>0</v>
@@ -27771,22 +27771,22 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>0</v>
+        <v>166.6458862679171</v>
       </c>
       <c r="C7" t="n">
-        <v>167.2468210986278</v>
+        <v>0</v>
       </c>
       <c r="D7" t="n">
-        <v>148.6154730182124</v>
+        <v>0</v>
       </c>
       <c r="E7" t="n">
         <v>146.4339626465692</v>
       </c>
       <c r="F7" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G7" t="n">
-        <v>0</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H7" t="n">
         <v>147.2515091551288</v>
@@ -27822,25 +27822,25 @@
         <v>101.5575724195736</v>
       </c>
       <c r="S7" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T7" t="n">
-        <v>160.0054452743786</v>
+        <v>0</v>
       </c>
       <c r="U7" t="n">
         <v>0</v>
       </c>
       <c r="V7" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W7" t="n">
         <v>0</v>
       </c>
       <c r="X7" t="n">
-        <v>0</v>
+        <v>225.7096553890372</v>
       </c>
       <c r="Y7" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="8">
@@ -27853,25 +27853,25 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0</v>
+        <v>365.2728917710076</v>
       </c>
       <c r="D8" t="n">
         <v>0</v>
       </c>
       <c r="E8" t="n">
-        <v>0</v>
+        <v>297.1568603482293</v>
       </c>
       <c r="F8" t="n">
-        <v>0</v>
+        <v>400</v>
       </c>
       <c r="G8" t="n">
         <v>400</v>
       </c>
       <c r="H8" t="n">
-        <v>301.0185525624054</v>
+        <v>0</v>
       </c>
       <c r="I8" t="n">
-        <v>65.70991267247044</v>
+        <v>0</v>
       </c>
       <c r="J8" t="n">
         <v>0</v>
@@ -27901,25 +27901,25 @@
         <v>0</v>
       </c>
       <c r="S8" t="n">
-        <v>123.4522153987944</v>
+        <v>0</v>
       </c>
       <c r="T8" t="n">
-        <v>206.6581849802338</v>
+        <v>0</v>
       </c>
       <c r="U8" t="n">
-        <v>251.045250128462</v>
+        <v>0</v>
       </c>
       <c r="V8" t="n">
-        <v>131.0524743544554</v>
+        <v>0</v>
       </c>
       <c r="W8" t="n">
         <v>349.240968717413</v>
       </c>
       <c r="X8" t="n">
-        <v>369.731100678469</v>
+        <v>0</v>
       </c>
       <c r="Y8" t="n">
-        <v>0</v>
+        <v>386.2379386560536</v>
       </c>
     </row>
     <row r="9">
@@ -28011,19 +28011,19 @@
         <v>0</v>
       </c>
       <c r="C10" t="n">
-        <v>0</v>
+        <v>167.2468210986278</v>
       </c>
       <c r="D10" t="n">
-        <v>0</v>
+        <v>148.6154730182124</v>
       </c>
       <c r="E10" t="n">
-        <v>0</v>
+        <v>146.4339626465692</v>
       </c>
       <c r="F10" t="n">
-        <v>0</v>
+        <v>145.4210480229312</v>
       </c>
       <c r="G10" t="n">
-        <v>115.3258519193756</v>
+        <v>166.3066000448042</v>
       </c>
       <c r="H10" t="n">
         <v>147.2515091551288</v>
@@ -28056,28 +28056,28 @@
         <v>0</v>
       </c>
       <c r="R10" t="n">
-        <v>101.5575724195736</v>
+        <v>0</v>
       </c>
       <c r="S10" t="n">
-        <v>194.6624603617375</v>
+        <v>0</v>
       </c>
       <c r="T10" t="n">
-        <v>220.7486959972119</v>
+        <v>0</v>
       </c>
       <c r="U10" t="n">
-        <v>286.2271541212006</v>
+        <v>0</v>
       </c>
       <c r="V10" t="n">
-        <v>252.137643323828</v>
+        <v>0</v>
       </c>
       <c r="W10" t="n">
         <v>0</v>
       </c>
       <c r="X10" t="n">
-        <v>0</v>
+        <v>178.0508199596876</v>
       </c>
       <c r="Y10" t="n">
-        <v>0</v>
+        <v>218.5846533520948</v>
       </c>
     </row>
     <row r="11">
@@ -28090,7 +28090,7 @@
         <v>0</v>
       </c>
       <c r="C11" t="n">
-        <v>0</v>
+        <v>-5.630606326017892e-13</v>
       </c>
       <c r="D11" t="n">
         <v>0</v>
@@ -28102,7 +28102,7 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>-1.54335762560769e-12</v>
+        <v>0</v>
       </c>
       <c r="H11" t="n">
         <v>0</v>
@@ -28138,19 +28138,19 @@
         <v>0</v>
       </c>
       <c r="S11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="T11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="U11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
       </c>
       <c r="W11" t="n">
-        <v>-6.436047097567693e-14</v>
+        <v>0</v>
       </c>
       <c r="X11" t="n">
         <v>0</v>
@@ -28381,7 +28381,7 @@
         <v>0</v>
       </c>
       <c r="U14" t="n">
-        <v>0</v>
+        <v>-7.71678812803845e-13</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -28576,7 +28576,7 @@
         <v>0</v>
       </c>
       <c r="G17" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H17" t="n">
         <v>0</v>
@@ -28855,7 +28855,7 @@
         <v>0</v>
       </c>
       <c r="U20" t="n">
-        <v>0</v>
+        <v>2.557953848736361e-13</v>
       </c>
       <c r="V20" t="n">
         <v>0</v>
@@ -29272,7 +29272,7 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>1.193711796076968e-12</v>
+        <v>0</v>
       </c>
       <c r="C26" t="n">
         <v>0</v>
@@ -29287,7 +29287,7 @@
         <v>0</v>
       </c>
       <c r="G26" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H26" t="n">
         <v>0</v>
@@ -29527,7 +29527,7 @@
         <v>0</v>
       </c>
       <c r="H29" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="I29" t="n">
         <v>0</v>
@@ -29761,7 +29761,7 @@
         <v>0</v>
       </c>
       <c r="G32" t="n">
-        <v>0</v>
+        <v>1.4210854715202e-12</v>
       </c>
       <c r="H32" t="n">
         <v>0</v>
@@ -29998,7 +29998,7 @@
         <v>0</v>
       </c>
       <c r="G35" t="n">
-        <v>0</v>
+        <v>5.115907697472721e-13</v>
       </c>
       <c r="H35" t="n">
         <v>0</v>
@@ -30235,10 +30235,10 @@
         <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>5.115907697472721e-13</v>
+        <v>0</v>
       </c>
       <c r="H38" t="n">
-        <v>0</v>
+        <v>2.842170943040401e-13</v>
       </c>
       <c r="I38" t="n">
         <v>0</v>
@@ -31039,49 +31039,49 @@
         <v>0</v>
       </c>
       <c r="G2" t="n">
-        <v>3.75503474218106</v>
+        <v>3.755034742181059</v>
       </c>
       <c r="H2" t="n">
-        <v>38.45624955336179</v>
+        <v>38.45624955336178</v>
       </c>
       <c r="I2" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J2" t="n">
-        <v>318.70387994919</v>
+        <v>318.7038799491899</v>
       </c>
       <c r="K2" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857142</v>
       </c>
       <c r="L2" t="n">
-        <v>592.5726450767381</v>
+        <v>592.5726450767379</v>
       </c>
       <c r="M2" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730003</v>
       </c>
       <c r="N2" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342223</v>
       </c>
       <c r="O2" t="n">
-        <v>632.6811099166596</v>
+        <v>632.6811099166594</v>
       </c>
       <c r="P2" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190644</v>
       </c>
       <c r="Q2" t="n">
-        <v>405.5015080147052</v>
+        <v>405.5015080147051</v>
       </c>
       <c r="R2" t="n">
-        <v>235.8772011235312</v>
+        <v>235.8772011235311</v>
       </c>
       <c r="S2" t="n">
-        <v>85.56785418745099</v>
+        <v>85.56785418745096</v>
       </c>
       <c r="T2" t="n">
-        <v>16.4376645838976</v>
+        <v>16.43766458389759</v>
       </c>
       <c r="U2" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V2" t="n">
         <v>0</v>
@@ -31118,49 +31118,49 @@
         <v>0</v>
       </c>
       <c r="G3" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H3" t="n">
-        <v>19.40387634380021</v>
+        <v>19.4038763438002</v>
       </c>
       <c r="I3" t="n">
-        <v>69.17367361436496</v>
+        <v>69.17367361436493</v>
       </c>
       <c r="J3" t="n">
         <v>189.8178475575841</v>
       </c>
       <c r="K3" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L3" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177243</v>
       </c>
       <c r="M3" t="n">
-        <v>509.0653662040589</v>
+        <v>509.0653662040588</v>
       </c>
       <c r="N3" t="n">
-        <v>522.5388116762073</v>
+        <v>522.5388116762072</v>
       </c>
       <c r="O3" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405674</v>
       </c>
       <c r="P3" t="n">
-        <v>383.6539365378626</v>
+        <v>383.6539365378625</v>
       </c>
       <c r="Q3" t="n">
-        <v>256.4624964168761</v>
+        <v>256.462496416876</v>
       </c>
       <c r="R3" t="n">
-        <v>124.7417227624141</v>
+        <v>124.741722762414</v>
       </c>
       <c r="S3" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997901</v>
       </c>
       <c r="T3" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000171</v>
       </c>
       <c r="U3" t="n">
-        <v>0.1321789941675764</v>
+        <v>0.1321789941675763</v>
       </c>
       <c r="V3" t="n">
         <v>0</v>
@@ -31203,25 +31203,25 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I4" t="n">
-        <v>50.65387972335773</v>
+        <v>50.6538797233577</v>
       </c>
       <c r="J4" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K4" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L4" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M4" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N4" t="n">
-        <v>257.7559726067959</v>
+        <v>257.7559726067958</v>
       </c>
       <c r="O4" t="n">
-        <v>238.0793597154673</v>
+        <v>238.0793597154672</v>
       </c>
       <c r="P4" t="n">
         <v>203.7180217169137</v>
@@ -31230,16 +31230,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R4" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759585</v>
       </c>
       <c r="S4" t="n">
-        <v>29.35413767523479</v>
+        <v>29.35413767523478</v>
       </c>
       <c r="T4" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069561</v>
       </c>
       <c r="U4" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024984</v>
       </c>
       <c r="V4" t="n">
         <v>0</v>
@@ -31282,28 +31282,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I5" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J5" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K5" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L5" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M5" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N5" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O5" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P5" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q5" t="n">
         <v>405.5015080147052</v>
@@ -31318,7 +31318,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U5" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V5" t="n">
         <v>0</v>
@@ -31355,7 +31355,7 @@
         <v>0</v>
       </c>
       <c r="G6" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H6" t="n">
         <v>19.40387634380021</v>
@@ -31367,10 +31367,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K6" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L6" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M6" t="n">
         <v>509.0653662040589</v>
@@ -31379,7 +31379,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O6" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P6" t="n">
         <v>383.6539365378626</v>
@@ -31391,10 +31391,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S6" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T6" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U6" t="n">
         <v>0.1321789941675764</v>
@@ -31440,19 +31440,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I7" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J7" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K7" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L7" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M7" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N7" t="n">
         <v>257.7559726067959</v>
@@ -31467,16 +31467,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R7" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S7" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T7" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U7" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V7" t="n">
         <v>0</v>
@@ -31519,28 +31519,28 @@
         <v>38.45624955336179</v>
       </c>
       <c r="I8" t="n">
-        <v>144.7659768979355</v>
+        <v>144.7659768979354</v>
       </c>
       <c r="J8" t="n">
         <v>318.70387994919</v>
       </c>
       <c r="K8" t="n">
-        <v>477.6545005857144</v>
+        <v>477.6545005857143</v>
       </c>
       <c r="L8" t="n">
         <v>592.5726450767381</v>
       </c>
       <c r="M8" t="n">
-        <v>659.3512441730006</v>
+        <v>659.3512441730005</v>
       </c>
       <c r="N8" t="n">
-        <v>670.0202366342226</v>
+        <v>670.0202366342224</v>
       </c>
       <c r="O8" t="n">
         <v>632.6811099166596</v>
       </c>
       <c r="P8" t="n">
-        <v>539.9786897190646</v>
+        <v>539.9786897190645</v>
       </c>
       <c r="Q8" t="n">
         <v>405.5015080147052</v>
@@ -31555,7 +31555,7 @@
         <v>16.4376645838976</v>
       </c>
       <c r="U8" t="n">
-        <v>0.3004027793744848</v>
+        <v>0.3004027793744847</v>
       </c>
       <c r="V8" t="n">
         <v>0</v>
@@ -31592,7 +31592,7 @@
         <v>0</v>
       </c>
       <c r="G9" t="n">
-        <v>2.009120711347161</v>
+        <v>2.00912071134716</v>
       </c>
       <c r="H9" t="n">
         <v>19.40387634380021</v>
@@ -31604,10 +31604,10 @@
         <v>189.8178475575841</v>
       </c>
       <c r="K9" t="n">
-        <v>324.4289352178439</v>
+        <v>324.4289352178438</v>
       </c>
       <c r="L9" t="n">
-        <v>436.2347404177245</v>
+        <v>436.2347404177244</v>
       </c>
       <c r="M9" t="n">
         <v>509.0653662040589</v>
@@ -31616,7 +31616,7 @@
         <v>522.5388116762073</v>
       </c>
       <c r="O9" t="n">
-        <v>478.0209264405676</v>
+        <v>478.0209264405675</v>
       </c>
       <c r="P9" t="n">
         <v>383.6539365378626</v>
@@ -31628,10 +31628,10 @@
         <v>124.7417227624141</v>
       </c>
       <c r="S9" t="n">
-        <v>37.31853601997903</v>
+        <v>37.31853601997902</v>
       </c>
       <c r="T9" t="n">
-        <v>8.098166376000174</v>
+        <v>8.098166376000172</v>
       </c>
       <c r="U9" t="n">
         <v>0.1321789941675764</v>
@@ -31677,19 +31677,19 @@
         <v>14.97566335231072</v>
       </c>
       <c r="I10" t="n">
-        <v>50.65387972335773</v>
+        <v>50.65387972335772</v>
       </c>
       <c r="J10" t="n">
         <v>119.0856174753787</v>
       </c>
       <c r="K10" t="n">
-        <v>195.694251168232</v>
+        <v>195.6942511682319</v>
       </c>
       <c r="L10" t="n">
         <v>250.4212663227908</v>
       </c>
       <c r="M10" t="n">
-        <v>264.0341136849628</v>
+        <v>264.0341136849627</v>
       </c>
       <c r="N10" t="n">
         <v>257.7559726067959</v>
@@ -31704,16 +31704,16 @@
         <v>141.0437987097484</v>
       </c>
       <c r="R10" t="n">
-        <v>75.73581895759588</v>
+        <v>75.73581895759587</v>
       </c>
       <c r="S10" t="n">
         <v>29.35413767523479</v>
       </c>
       <c r="T10" t="n">
-        <v>7.196893431069563</v>
+        <v>7.196893431069562</v>
       </c>
       <c r="U10" t="n">
-        <v>0.09187523529024988</v>
+        <v>0.09187523529024987</v>
       </c>
       <c r="V10" t="n">
         <v>0</v>
@@ -31750,40 +31750,40 @@
         <v>0</v>
       </c>
       <c r="G11" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H11" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I11" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J11" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K11" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L11" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M11" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N11" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O11" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P11" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q11" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R11" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S11" t="n">
         <v>125.3175546292901</v>
@@ -31792,7 +31792,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U11" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V11" t="n">
         <v>0</v>
@@ -31841,31 +31841,31 @@
         <v>277.9958514420755</v>
       </c>
       <c r="K12" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L12" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M12" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N12" t="n">
-        <v>765.2790490071787</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O12" t="n">
-        <v>400.5469039565758</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P12" t="n">
-        <v>133.9744074143302</v>
+        <v>431.3680753731354</v>
       </c>
       <c r="Q12" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R12" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S12" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T12" t="n">
         <v>11.86008947937734</v>
@@ -31908,13 +31908,13 @@
         <v>0</v>
       </c>
       <c r="G13" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H13" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I13" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J13" t="n">
         <v>174.4056633796262</v>
@@ -31932,7 +31932,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O13" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P13" t="n">
         <v>298.3532140417315</v>
@@ -31944,7 +31944,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S13" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T13" t="n">
         <v>10.54013910099322</v>
@@ -31987,40 +31987,40 @@
         <v>0</v>
       </c>
       <c r="G14" t="n">
-        <v>5.499398996348435</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H14" t="n">
-        <v>56.32071997135342</v>
+        <v>56.32071997135341</v>
       </c>
       <c r="I14" t="n">
-        <v>212.0155798067233</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J14" t="n">
-        <v>466.7546155663284</v>
+        <v>466.7546155663283</v>
       </c>
       <c r="K14" t="n">
-        <v>699.5441750817578</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L14" t="n">
-        <v>867.8464071162564</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M14" t="n">
-        <v>965.6463440175678</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N14" t="n">
-        <v>981.2715114159429</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O14" t="n">
-        <v>926.5868626460031</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P14" t="n">
-        <v>790.8204499236509</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q14" t="n">
-        <v>593.8732233669225</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R14" t="n">
-        <v>345.4516222043727</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S14" t="n">
         <v>125.3175546292901</v>
@@ -32029,7 +32029,7 @@
         <v>24.07361910651528</v>
       </c>
       <c r="U14" t="n">
-        <v>0.4399519197078747</v>
+        <v>0.4399519197078746</v>
       </c>
       <c r="V14" t="n">
         <v>0</v>
@@ -32072,37 +32072,37 @@
         <v>28.41775520521101</v>
       </c>
       <c r="I15" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J15" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K15" t="n">
-        <v>475.1391886422587</v>
+        <v>475.1391886422586</v>
       </c>
       <c r="L15" t="n">
-        <v>638.8832749473074</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M15" t="n">
-        <v>745.5466476862124</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N15" t="n">
-        <v>765.2790490071787</v>
+        <v>765.2790490071786</v>
       </c>
       <c r="O15" t="n">
-        <v>551.7051287319844</v>
+        <v>277.2922978908101</v>
       </c>
       <c r="P15" t="n">
         <v>133.9744074143302</v>
       </c>
       <c r="Q15" t="n">
-        <v>139.9817740860215</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R15" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S15" t="n">
-        <v>54.6544928674244</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T15" t="n">
         <v>11.86008947937734</v>
@@ -32145,13 +32145,13 @@
         <v>0</v>
       </c>
       <c r="G16" t="n">
-        <v>2.466841066189904</v>
+        <v>2.466841066189903</v>
       </c>
       <c r="H16" t="n">
         <v>21.93245966121571</v>
       </c>
       <c r="I16" t="n">
-        <v>74.18463860869278</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J16" t="n">
         <v>174.4056633796262</v>
@@ -32169,7 +32169,7 @@
         <v>377.4939606106789</v>
       </c>
       <c r="O16" t="n">
-        <v>348.6767717920059</v>
+        <v>348.6767717920058</v>
       </c>
       <c r="P16" t="n">
         <v>298.3532140417315</v>
@@ -32181,7 +32181,7 @@
         <v>110.9181446670478</v>
       </c>
       <c r="S16" t="n">
-        <v>42.99031203532768</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T16" t="n">
         <v>10.54013910099322</v>
@@ -32315,16 +32315,16 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K18" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L18" t="n">
-        <v>164.2853229338207</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M18" t="n">
         <v>745.5466476862121</v>
       </c>
       <c r="N18" t="n">
-        <v>765.2790490071785</v>
+        <v>416.7024900153332</v>
       </c>
       <c r="O18" t="n">
         <v>700.0808204437243</v>
@@ -32336,7 +32336,7 @@
         <v>375.599612848529</v>
       </c>
       <c r="R18" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S18" t="n">
         <v>54.65449286742438</v>
@@ -32473,7 +32473,7 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K20" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817581</v>
       </c>
       <c r="L20" t="n">
         <v>867.846407116256</v>
@@ -32546,28 +32546,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I21" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J21" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K21" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L21" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M21" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N21" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O21" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P21" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q21" t="n">
         <v>375.599612848529</v>
@@ -32698,7 +32698,7 @@
         <v>0</v>
       </c>
       <c r="G23" t="n">
-        <v>5.499398996348433</v>
+        <v>5.499398996348434</v>
       </c>
       <c r="H23" t="n">
         <v>56.32071997135341</v>
@@ -32710,31 +32710,31 @@
         <v>466.7546155663283</v>
       </c>
       <c r="K23" t="n">
-        <v>699.5441750817575</v>
+        <v>699.5441750817577</v>
       </c>
       <c r="L23" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162563</v>
       </c>
       <c r="M23" t="n">
-        <v>965.6463440175675</v>
+        <v>965.6463440175677</v>
       </c>
       <c r="N23" t="n">
-        <v>981.2715114159425</v>
+        <v>981.2715114159428</v>
       </c>
       <c r="O23" t="n">
-        <v>926.5868626460027</v>
+        <v>926.5868626460029</v>
       </c>
       <c r="P23" t="n">
-        <v>790.8204499236507</v>
+        <v>790.8204499236508</v>
       </c>
       <c r="Q23" t="n">
-        <v>593.8732233669223</v>
+        <v>593.8732233669224</v>
       </c>
       <c r="R23" t="n">
-        <v>345.4516222043725</v>
+        <v>345.4516222043726</v>
       </c>
       <c r="S23" t="n">
-        <v>125.31755462929</v>
+        <v>125.3175546292901</v>
       </c>
       <c r="T23" t="n">
         <v>24.07361910651528</v>
@@ -32777,10 +32777,10 @@
         <v>0</v>
       </c>
       <c r="G24" t="n">
-        <v>2.942437868659449</v>
+        <v>2.94243786865945</v>
       </c>
       <c r="H24" t="n">
-        <v>28.417755205211</v>
+        <v>28.41775520521101</v>
       </c>
       <c r="I24" t="n">
         <v>99.52238</v>
@@ -32792,34 +32792,34 @@
         <v>137.841438974359</v>
       </c>
       <c r="L24" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473073</v>
       </c>
       <c r="M24" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862122</v>
       </c>
       <c r="N24" t="n">
-        <v>765.2790490071785</v>
+        <v>253.6713445157994</v>
       </c>
       <c r="O24" t="n">
-        <v>700.0808204437243</v>
+        <v>700.0808204437244</v>
       </c>
       <c r="P24" t="n">
-        <v>561.8765786214698</v>
+        <v>561.8765786214699</v>
       </c>
       <c r="Q24" t="n">
-        <v>375.599612848529</v>
+        <v>375.5996128485291</v>
       </c>
       <c r="R24" t="n">
         <v>182.6892564418561</v>
       </c>
       <c r="S24" t="n">
-        <v>54.65449286742438</v>
+        <v>54.65449286742439</v>
       </c>
       <c r="T24" t="n">
         <v>11.86008947937734</v>
       </c>
       <c r="U24" t="n">
-        <v>0.1935814387275954</v>
+        <v>0.1935814387275955</v>
       </c>
       <c r="V24" t="n">
         <v>0</v>
@@ -32859,25 +32859,25 @@
         <v>2.466841066189903</v>
       </c>
       <c r="H25" t="n">
-        <v>21.9324596612157</v>
+        <v>21.93245966121571</v>
       </c>
       <c r="I25" t="n">
-        <v>74.18463860869275</v>
+        <v>74.18463860869277</v>
       </c>
       <c r="J25" t="n">
-        <v>174.4056633796261</v>
+        <v>174.4056633796262</v>
       </c>
       <c r="K25" t="n">
-        <v>286.6020802355178</v>
+        <v>286.6020802355179</v>
       </c>
       <c r="L25" t="n">
-        <v>366.7519890588153</v>
+        <v>366.7519890588154</v>
       </c>
       <c r="M25" t="n">
-        <v>386.6885500392045</v>
+        <v>386.6885500392046</v>
       </c>
       <c r="N25" t="n">
-        <v>377.4939606106788</v>
+        <v>377.4939606106789</v>
       </c>
       <c r="O25" t="n">
         <v>348.6767717920058</v>
@@ -32886,19 +32886,19 @@
         <v>298.3532140417315</v>
       </c>
       <c r="Q25" t="n">
-        <v>206.5643005515927</v>
+        <v>206.5643005515928</v>
       </c>
       <c r="R25" t="n">
         <v>110.9181446670478</v>
       </c>
       <c r="S25" t="n">
-        <v>42.99031203532766</v>
+        <v>42.99031203532767</v>
       </c>
       <c r="T25" t="n">
         <v>10.54013910099322</v>
       </c>
       <c r="U25" t="n">
-        <v>0.1345549672467221</v>
+        <v>0.1345549672467222</v>
       </c>
       <c r="V25" t="n">
         <v>0</v>
@@ -33020,7 +33020,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I27" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J27" t="n">
         <v>126.8376266666667</v>
@@ -33032,7 +33032,7 @@
         <v>138.5543797798742</v>
       </c>
       <c r="M27" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N27" t="n">
         <v>765.2790490071785</v>
@@ -33041,7 +33041,7 @@
         <v>700.0808204437243</v>
       </c>
       <c r="P27" t="n">
-        <v>561.8765786214698</v>
+        <v>548.8125296967492</v>
       </c>
       <c r="Q27" t="n">
         <v>375.599612848529</v>
@@ -33257,7 +33257,7 @@
         <v>28.417755205211</v>
       </c>
       <c r="I30" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J30" t="n">
         <v>277.9958514420755</v>
@@ -33272,19 +33272,19 @@
         <v>745.5466476862121</v>
       </c>
       <c r="N30" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O30" t="n">
-        <v>400.5469039565762</v>
+        <v>332.1692388321076</v>
       </c>
       <c r="P30" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q30" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R30" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S30" t="n">
         <v>54.65449286742438</v>
@@ -33439,7 +33439,7 @@
         <v>790.8204499236507</v>
       </c>
       <c r="Q32" t="n">
-        <v>593.8732233669224</v>
+        <v>593.8732233669223</v>
       </c>
       <c r="R32" t="n">
         <v>345.4516222043725</v>
@@ -33497,13 +33497,13 @@
         <v>99.52238</v>
       </c>
       <c r="J33" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K33" t="n">
         <v>475.1391886422585</v>
       </c>
       <c r="L33" t="n">
-        <v>638.8832749473072</v>
+        <v>138.5543797798742</v>
       </c>
       <c r="M33" t="n">
         <v>745.5466476862121</v>
@@ -33512,16 +33512,16 @@
         <v>765.2790490071785</v>
       </c>
       <c r="O33" t="n">
-        <v>400.5469039565762</v>
+        <v>587.1221002143864</v>
       </c>
       <c r="P33" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q33" t="n">
         <v>139.9817740860215</v>
       </c>
       <c r="R33" t="n">
-        <v>145.679503963964</v>
+        <v>182.6892564418561</v>
       </c>
       <c r="S33" t="n">
         <v>54.65449286742438</v>
@@ -33731,31 +33731,31 @@
         <v>28.417755205211</v>
       </c>
       <c r="I36" t="n">
-        <v>101.3076196007749</v>
+        <v>99.52238</v>
       </c>
       <c r="J36" t="n">
-        <v>277.9958514420755</v>
+        <v>126.8376266666667</v>
       </c>
       <c r="K36" t="n">
-        <v>475.1391886422585</v>
+        <v>137.841438974359</v>
       </c>
       <c r="L36" t="n">
         <v>638.8832749473072</v>
       </c>
       <c r="M36" t="n">
-        <v>745.5466476862121</v>
+        <v>270.9486956727256</v>
       </c>
       <c r="N36" t="n">
         <v>765.2790490071785</v>
       </c>
       <c r="O36" t="n">
-        <v>398.7616643558013</v>
+        <v>700.0808204437243</v>
       </c>
       <c r="P36" t="n">
-        <v>133.9744074143302</v>
+        <v>561.8765786214698</v>
       </c>
       <c r="Q36" t="n">
-        <v>139.9817740860215</v>
+        <v>375.599612848529</v>
       </c>
       <c r="R36" t="n">
         <v>145.679503963964</v>
@@ -33974,28 +33974,28 @@
         <v>126.8376266666667</v>
       </c>
       <c r="K39" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L39" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M39" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N39" t="n">
-        <v>765.2790490071785</v>
+        <v>616.9033572954396</v>
       </c>
       <c r="O39" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P39" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q39" t="n">
-        <v>375.599612848529</v>
+        <v>139.9817740860215</v>
       </c>
       <c r="R39" t="n">
-        <v>182.6892564418561</v>
+        <v>145.679503963964</v>
       </c>
       <c r="S39" t="n">
         <v>54.65449286742438</v>
@@ -34126,7 +34126,7 @@
         <v>56.32071997135341</v>
       </c>
       <c r="I41" t="n">
-        <v>212.0155798067237</v>
+        <v>212.0155798067232</v>
       </c>
       <c r="J41" t="n">
         <v>466.7546155663283</v>
@@ -34205,28 +34205,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I42" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J42" t="n">
         <v>126.8376266666667</v>
       </c>
       <c r="K42" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L42" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M42" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N42" t="n">
-        <v>765.2790490071785</v>
+        <v>342.490526454265</v>
       </c>
       <c r="O42" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P42" t="n">
-        <v>561.8765786214698</v>
+        <v>133.9744074143302</v>
       </c>
       <c r="Q42" t="n">
         <v>375.599612848529</v>
@@ -34372,7 +34372,7 @@
         <v>699.5441750817575</v>
       </c>
       <c r="L44" t="n">
-        <v>867.846407116256</v>
+        <v>867.8464071162566</v>
       </c>
       <c r="M44" t="n">
         <v>965.6463440175675</v>
@@ -34442,28 +34442,28 @@
         <v>28.417755205211</v>
       </c>
       <c r="I45" t="n">
-        <v>99.52238</v>
+        <v>101.3076196007749</v>
       </c>
       <c r="J45" t="n">
-        <v>126.8376266666667</v>
+        <v>277.9958514420755</v>
       </c>
       <c r="K45" t="n">
-        <v>137.841438974359</v>
+        <v>475.1391886422585</v>
       </c>
       <c r="L45" t="n">
-        <v>138.5543797798742</v>
+        <v>638.8832749473072</v>
       </c>
       <c r="M45" t="n">
-        <v>734.2678383622665</v>
+        <v>745.5466476862121</v>
       </c>
       <c r="N45" t="n">
-        <v>765.2790490071785</v>
+        <v>131.3417120833333</v>
       </c>
       <c r="O45" t="n">
         <v>700.0808204437243</v>
       </c>
       <c r="P45" t="n">
-        <v>561.8765786214698</v>
+        <v>193.964997009853</v>
       </c>
       <c r="Q45" t="n">
         <v>375.599612848529</v>
@@ -34696,31 +34696,31 @@
         <v>0</v>
       </c>
       <c r="J2" t="n">
-        <v>137.6579754225037</v>
+        <v>137.6579754225036</v>
       </c>
       <c r="K2" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407337</v>
       </c>
       <c r="L2" t="n">
-        <v>356.8062301067509</v>
+        <v>356.8062301067507</v>
       </c>
       <c r="M2" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457276</v>
       </c>
       <c r="N2" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376314</v>
       </c>
       <c r="O2" t="n">
-        <v>402.5828984949728</v>
+        <v>402.5828984949726</v>
       </c>
       <c r="P2" t="n">
-        <v>308.7456939637951</v>
+        <v>308.7456939637948</v>
       </c>
       <c r="Q2" t="n">
-        <v>183.1958181402557</v>
+        <v>183.1958181402556</v>
       </c>
       <c r="R2" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939901</v>
       </c>
       <c r="S2" t="n">
         <v>0</v>
@@ -34775,28 +34775,28 @@
         <v>0</v>
       </c>
       <c r="J3" t="n">
-        <v>62.98022089091745</v>
+        <v>62.98022089091739</v>
       </c>
       <c r="K3" t="n">
-        <v>451.0527332560635</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L3" t="n">
-        <v>297.6803606378503</v>
+        <v>640.5848321000387</v>
       </c>
       <c r="M3" t="n">
-        <v>366.9313322820406</v>
+        <v>553.5225306839449</v>
       </c>
       <c r="N3" t="n">
-        <v>391.197099592874</v>
+        <v>391.1970995928739</v>
       </c>
       <c r="O3" t="n">
-        <v>335.4246819961231</v>
+        <v>335.424681996123</v>
       </c>
       <c r="P3" t="n">
-        <v>514.7099619750473</v>
+        <v>249.6795291235322</v>
       </c>
       <c r="Q3" t="n">
-        <v>116.4807223308546</v>
+        <v>116.4807223308545</v>
       </c>
       <c r="R3" t="n">
         <v>0</v>
@@ -34854,28 +34854,28 @@
         <v>0</v>
       </c>
       <c r="J4" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870592</v>
       </c>
       <c r="K4" t="n">
-        <v>173.4247593423491</v>
+        <v>173.424759342349</v>
       </c>
       <c r="L4" t="n">
-        <v>278.011291583107</v>
+        <v>278.0112915831069</v>
       </c>
       <c r="M4" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N4" t="n">
-        <v>301.8881449860245</v>
+        <v>301.8881449860244</v>
       </c>
       <c r="O4" t="n">
-        <v>262.664487629507</v>
+        <v>262.6644876295069</v>
       </c>
       <c r="P4" t="n">
         <v>200.9965809818072</v>
       </c>
       <c r="Q4" t="n">
-        <v>54.88175545805406</v>
+        <v>54.881755458054</v>
       </c>
       <c r="R4" t="n">
         <v>0</v>
@@ -34936,28 +34936,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K5" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L5" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M5" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N5" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O5" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P5" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q5" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R5" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S5" t="n">
         <v>0</v>
@@ -35012,25 +35012,25 @@
         <v>0</v>
       </c>
       <c r="J6" t="n">
-        <v>63.93583437922342</v>
+        <v>189.0712562313263</v>
       </c>
       <c r="K6" t="n">
-        <v>186.5874962434849</v>
+        <v>186.5874962434848</v>
       </c>
       <c r="L6" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M6" t="n">
         <v>366.9313322820406</v>
       </c>
       <c r="N6" t="n">
-        <v>391.197099592874</v>
+        <v>584.5244463807084</v>
       </c>
       <c r="O6" t="n">
         <v>335.4246819961231</v>
       </c>
       <c r="P6" t="n">
-        <v>568.1422977634695</v>
+        <v>249.6795291235323</v>
       </c>
       <c r="Q6" t="n">
         <v>326.5580100667037</v>
@@ -35091,7 +35091,7 @@
         <v>0</v>
       </c>
       <c r="J7" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K7" t="n">
         <v>173.4247593423491</v>
@@ -35100,7 +35100,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M7" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N7" t="n">
         <v>301.8881449860245</v>
@@ -35173,28 +35173,28 @@
         <v>137.6579754225037</v>
       </c>
       <c r="K8" t="n">
-        <v>257.5646495407339</v>
+        <v>257.5646495407338</v>
       </c>
       <c r="L8" t="n">
         <v>356.8062301067509</v>
       </c>
       <c r="M8" t="n">
-        <v>429.0050109457279</v>
+        <v>429.0050109457278</v>
       </c>
       <c r="N8" t="n">
-        <v>440.6071730376316</v>
+        <v>440.6071730376315</v>
       </c>
       <c r="O8" t="n">
         <v>402.5828984949728</v>
       </c>
       <c r="P8" t="n">
-        <v>308.7456939637951</v>
+        <v>308.745693963795</v>
       </c>
       <c r="Q8" t="n">
         <v>183.1958181402557</v>
       </c>
       <c r="R8" t="n">
-        <v>20.2916633093991</v>
+        <v>20.29166330939907</v>
       </c>
       <c r="S8" t="n">
         <v>0</v>
@@ -35249,16 +35249,16 @@
         <v>0</v>
       </c>
       <c r="J9" t="n">
-        <v>189.0712562313263</v>
+        <v>62.98022089091745</v>
       </c>
       <c r="K9" t="n">
-        <v>379.914843031319</v>
+        <v>451.0527332560634</v>
       </c>
       <c r="L9" t="n">
-        <v>297.6803606378503</v>
+        <v>297.6803606378502</v>
       </c>
       <c r="M9" t="n">
-        <v>366.9313322820406</v>
+        <v>397.3005887879345</v>
       </c>
       <c r="N9" t="n">
         <v>391.197099592874</v>
@@ -35273,7 +35273,7 @@
         <v>326.5580100667037</v>
       </c>
       <c r="R9" t="n">
-        <v>0</v>
+        <v>24.58388860977094</v>
       </c>
       <c r="S9" t="n">
         <v>0</v>
@@ -35328,7 +35328,7 @@
         <v>0</v>
       </c>
       <c r="J10" t="n">
-        <v>25.72643735870597</v>
+        <v>25.72643735870595</v>
       </c>
       <c r="K10" t="n">
         <v>173.4247593423491</v>
@@ -35337,7 +35337,7 @@
         <v>278.011291583107</v>
       </c>
       <c r="M10" t="n">
-        <v>303.6179906468034</v>
+        <v>303.6179906468033</v>
       </c>
       <c r="N10" t="n">
         <v>301.8881449860245</v>
@@ -35404,31 +35404,31 @@
         <v>0</v>
       </c>
       <c r="I11" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J11" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K11" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L11" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M11" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N11" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O11" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P11" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q11" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R11" t="n">
         <v>129.8660843902405</v>
@@ -35486,31 +35486,31 @@
         <v>0</v>
       </c>
       <c r="J12" t="n">
-        <v>151.1582247754089</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K12" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L12" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M12" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N12" t="n">
-        <v>633.9373369238455</v>
+        <v>0</v>
       </c>
       <c r="O12" t="n">
-        <v>257.9506595121313</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P12" t="n">
-        <v>0</v>
+        <v>297.3936679588052</v>
       </c>
       <c r="Q12" t="n">
         <v>0</v>
       </c>
       <c r="R12" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S12" t="n">
         <v>0</v>
@@ -35565,7 +35565,7 @@
         <v>0</v>
       </c>
       <c r="J13" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K13" t="n">
         <v>264.332588409635</v>
@@ -35577,7 +35577,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N13" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O13" t="n">
         <v>373.2618997060455</v>
@@ -35641,31 +35641,31 @@
         <v>0</v>
       </c>
       <c r="I14" t="n">
-        <v>1.539690236317341</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J14" t="n">
-        <v>285.7087110396421</v>
+        <v>285.708711039642</v>
       </c>
       <c r="K14" t="n">
-        <v>479.4543240367772</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L14" t="n">
-        <v>632.0799921462692</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M14" t="n">
-        <v>735.3001107902951</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N14" t="n">
-        <v>751.858447819352</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O14" t="n">
-        <v>696.4886512243163</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P14" t="n">
         <v>559.5874541683813</v>
       </c>
       <c r="Q14" t="n">
-        <v>371.567533492473</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R14" t="n">
         <v>129.8660843902405</v>
@@ -35720,34 +35720,34 @@
         <v>0</v>
       </c>
       <c r="I15" t="n">
-        <v>0</v>
+        <v>1.785239600774929</v>
       </c>
       <c r="J15" t="n">
         <v>0</v>
       </c>
       <c r="K15" t="n">
-        <v>337.2977496678997</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L15" t="n">
-        <v>500.3288951674332</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M15" t="n">
-        <v>603.412613764194</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N15" t="n">
-        <v>633.9373369238455</v>
+        <v>633.9373369238454</v>
       </c>
       <c r="O15" t="n">
-        <v>409.1088842875399</v>
+        <v>134.6960534463657</v>
       </c>
       <c r="P15" t="n">
         <v>0</v>
       </c>
       <c r="Q15" t="n">
-        <v>0</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R15" t="n">
-        <v>0</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S15" t="n">
         <v>0</v>
@@ -35802,7 +35802,7 @@
         <v>0</v>
       </c>
       <c r="J16" t="n">
-        <v>81.04648326295344</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K16" t="n">
         <v>264.332588409635</v>
@@ -35814,7 +35814,7 @@
         <v>426.2724270010452</v>
       </c>
       <c r="N16" t="n">
-        <v>421.6261329899075</v>
+        <v>421.6261329899074</v>
       </c>
       <c r="O16" t="n">
         <v>373.2618997060455</v>
@@ -35963,16 +35963,16 @@
         <v>0</v>
       </c>
       <c r="K18" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L18" t="n">
-        <v>25.73094315394657</v>
+        <v>0</v>
       </c>
       <c r="M18" t="n">
         <v>603.4126137641938</v>
       </c>
       <c r="N18" t="n">
-        <v>633.9373369238452</v>
+        <v>285.3607779319999</v>
       </c>
       <c r="O18" t="n">
         <v>557.4845759992799</v>
@@ -35984,7 +35984,7 @@
         <v>235.6178387625075</v>
       </c>
       <c r="R18" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S18" t="n">
         <v>0</v>
@@ -36121,7 +36121,7 @@
         <v>285.708711039642</v>
       </c>
       <c r="K20" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367776</v>
       </c>
       <c r="L20" t="n">
         <v>632.0799921462688</v>
@@ -36194,28 +36194,28 @@
         <v>0</v>
       </c>
       <c r="I21" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J21" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K21" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L21" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M21" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N21" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O21" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P21" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q21" t="n">
         <v>235.6178387625075</v>
@@ -36352,34 +36352,34 @@
         <v>0</v>
       </c>
       <c r="I23" t="n">
-        <v>1.539690236317256</v>
+        <v>1.539690236317284</v>
       </c>
       <c r="J23" t="n">
         <v>285.708711039642</v>
       </c>
       <c r="K23" t="n">
-        <v>479.454324036777</v>
+        <v>479.4543240367771</v>
       </c>
       <c r="L23" t="n">
-        <v>632.0799921462688</v>
+        <v>632.079992146269</v>
       </c>
       <c r="M23" t="n">
-        <v>735.3001107902948</v>
+        <v>735.300110790295</v>
       </c>
       <c r="N23" t="n">
-        <v>751.8584478193519</v>
+        <v>751.8584478193518</v>
       </c>
       <c r="O23" t="n">
-        <v>696.488651224316</v>
+        <v>696.4886512243162</v>
       </c>
       <c r="P23" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683813</v>
       </c>
       <c r="Q23" t="n">
-        <v>371.5675334924728</v>
+        <v>371.5675334924729</v>
       </c>
       <c r="R23" t="n">
-        <v>129.8660843902404</v>
+        <v>129.8660843902405</v>
       </c>
       <c r="S23" t="n">
         <v>0</v>
@@ -36440,25 +36440,25 @@
         <v>0</v>
       </c>
       <c r="L24" t="n">
-        <v>0</v>
+        <v>500.3288951674331</v>
       </c>
       <c r="M24" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N24" t="n">
-        <v>633.9373369238452</v>
+        <v>122.3296324324661</v>
       </c>
       <c r="O24" t="n">
-        <v>557.4845759992799</v>
+        <v>557.48457599928</v>
       </c>
       <c r="P24" t="n">
-        <v>427.9021712071395</v>
+        <v>427.9021712071396</v>
       </c>
       <c r="Q24" t="n">
-        <v>235.6178387625075</v>
+        <v>235.6178387625076</v>
       </c>
       <c r="R24" t="n">
-        <v>37.00975247789211</v>
+        <v>37.00975247789214</v>
       </c>
       <c r="S24" t="n">
         <v>0</v>
@@ -36513,22 +36513,22 @@
         <v>0</v>
       </c>
       <c r="J25" t="n">
-        <v>81.04648326295336</v>
+        <v>81.04648326295342</v>
       </c>
       <c r="K25" t="n">
-        <v>264.3325884096349</v>
+        <v>264.332588409635</v>
       </c>
       <c r="L25" t="n">
-        <v>394.3420143191314</v>
+        <v>394.3420143191315</v>
       </c>
       <c r="M25" t="n">
-        <v>426.2724270010451</v>
+        <v>426.2724270010452</v>
       </c>
       <c r="N25" t="n">
         <v>421.6261329899074</v>
       </c>
       <c r="O25" t="n">
-        <v>373.2618997060454</v>
+        <v>373.2618997060455</v>
       </c>
       <c r="P25" t="n">
         <v>295.631773306625</v>
@@ -36668,7 +36668,7 @@
         <v>0</v>
       </c>
       <c r="I27" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J27" t="n">
         <v>0</v>
@@ -36680,7 +36680,7 @@
         <v>0</v>
       </c>
       <c r="M27" t="n">
-        <v>592.1338044402482</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N27" t="n">
         <v>633.9373369238452</v>
@@ -36689,7 +36689,7 @@
         <v>557.4845759992799</v>
       </c>
       <c r="P27" t="n">
-        <v>427.9021712071395</v>
+        <v>414.838122282419</v>
       </c>
       <c r="Q27" t="n">
         <v>235.6178387625075</v>
@@ -36905,7 +36905,7 @@
         <v>0</v>
       </c>
       <c r="I30" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J30" t="n">
         <v>151.1582247754088</v>
@@ -36920,19 +36920,19 @@
         <v>603.4126137641938</v>
       </c>
       <c r="N30" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O30" t="n">
-        <v>257.9506595121318</v>
+        <v>189.5729943876631</v>
       </c>
       <c r="P30" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q30" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R30" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S30" t="n">
         <v>0</v>
@@ -37087,7 +37087,7 @@
         <v>559.5874541683811</v>
       </c>
       <c r="Q32" t="n">
-        <v>371.5675334924729</v>
+        <v>371.5675334924728</v>
       </c>
       <c r="R32" t="n">
         <v>129.8660843902404</v>
@@ -37145,13 +37145,13 @@
         <v>0</v>
       </c>
       <c r="J33" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K33" t="n">
         <v>337.2977496678996</v>
       </c>
       <c r="L33" t="n">
-        <v>500.328895167433</v>
+        <v>0</v>
       </c>
       <c r="M33" t="n">
         <v>603.4126137641938</v>
@@ -37160,16 +37160,16 @@
         <v>633.9373369238452</v>
       </c>
       <c r="O33" t="n">
-        <v>257.9506595121318</v>
+        <v>444.525855769942</v>
       </c>
       <c r="P33" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q33" t="n">
         <v>0</v>
       </c>
       <c r="R33" t="n">
-        <v>0</v>
+        <v>37.00975247789211</v>
       </c>
       <c r="S33" t="n">
         <v>0</v>
@@ -37379,31 +37379,31 @@
         <v>0</v>
       </c>
       <c r="I36" t="n">
-        <v>1.785239600774915</v>
+        <v>0</v>
       </c>
       <c r="J36" t="n">
-        <v>151.1582247754088</v>
+        <v>0</v>
       </c>
       <c r="K36" t="n">
-        <v>337.2977496678996</v>
+        <v>0</v>
       </c>
       <c r="L36" t="n">
         <v>500.328895167433</v>
       </c>
       <c r="M36" t="n">
-        <v>603.4126137641938</v>
+        <v>128.8146617507074</v>
       </c>
       <c r="N36" t="n">
         <v>633.9373369238452</v>
       </c>
       <c r="O36" t="n">
-        <v>256.1654199113569</v>
+        <v>557.4845759992799</v>
       </c>
       <c r="P36" t="n">
-        <v>0</v>
+        <v>427.9021712071395</v>
       </c>
       <c r="Q36" t="n">
-        <v>0</v>
+        <v>235.6178387625075</v>
       </c>
       <c r="R36" t="n">
         <v>0</v>
@@ -37622,28 +37622,28 @@
         <v>0</v>
       </c>
       <c r="K39" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L39" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M39" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N39" t="n">
-        <v>633.9373369238452</v>
+        <v>485.5616452121063</v>
       </c>
       <c r="O39" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P39" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q39" t="n">
-        <v>235.6178387625075</v>
+        <v>0</v>
       </c>
       <c r="R39" t="n">
-        <v>37.00975247789211</v>
+        <v>0</v>
       </c>
       <c r="S39" t="n">
         <v>0</v>
@@ -37774,7 +37774,7 @@
         <v>0</v>
       </c>
       <c r="I41" t="n">
-        <v>1.539690236317809</v>
+        <v>1.539690236317256</v>
       </c>
       <c r="J41" t="n">
         <v>285.708711039642</v>
@@ -37795,7 +37795,7 @@
         <v>696.488651224316</v>
       </c>
       <c r="P41" t="n">
-        <v>559.5874541683811</v>
+        <v>559.5874541683816</v>
       </c>
       <c r="Q41" t="n">
         <v>371.5675334924728</v>
@@ -37853,28 +37853,28 @@
         <v>0</v>
       </c>
       <c r="I42" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J42" t="n">
         <v>0</v>
       </c>
       <c r="K42" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L42" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M42" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N42" t="n">
-        <v>633.9373369238452</v>
+        <v>211.1488143709317</v>
       </c>
       <c r="O42" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P42" t="n">
-        <v>427.9021712071395</v>
+        <v>0</v>
       </c>
       <c r="Q42" t="n">
         <v>235.6178387625075</v>
@@ -38020,7 +38020,7 @@
         <v>479.454324036777</v>
       </c>
       <c r="L44" t="n">
-        <v>632.0799921462688</v>
+        <v>632.0799921462693</v>
       </c>
       <c r="M44" t="n">
         <v>735.3001107902948</v>
@@ -38090,28 +38090,28 @@
         <v>0</v>
       </c>
       <c r="I45" t="n">
-        <v>0</v>
+        <v>1.785239600774915</v>
       </c>
       <c r="J45" t="n">
-        <v>0</v>
+        <v>151.1582247754088</v>
       </c>
       <c r="K45" t="n">
-        <v>0</v>
+        <v>337.2977496678996</v>
       </c>
       <c r="L45" t="n">
-        <v>0</v>
+        <v>500.328895167433</v>
       </c>
       <c r="M45" t="n">
-        <v>592.1338044402481</v>
+        <v>603.4126137641938</v>
       </c>
       <c r="N45" t="n">
-        <v>633.9373369238452</v>
+        <v>0</v>
       </c>
       <c r="O45" t="n">
         <v>557.4845759992799</v>
       </c>
       <c r="P45" t="n">
-        <v>427.9021712071395</v>
+        <v>59.99058959552271</v>
       </c>
       <c r="Q45" t="n">
         <v>235.6178387625075</v>
